--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3726255.907789671</v>
+        <v>3723854.781779816</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>579530.762161843</v>
+        <v>579530.7621618424</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7406237.44725824</v>
+        <v>7406237.447258241</v>
       </c>
     </row>
     <row r="11">
@@ -1154,49 +1154,49 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="X8" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>6.05642108929943</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,67 +1212,67 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>5.309829763041574</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="E9" t="n">
+      <c r="S9" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1297,64 +1297,64 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="G10" t="n">
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="H10" t="n">
+      <c r="U10" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,13 +1376,13 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>337.2598881238946</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
         <v>247.6326277687279</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958328</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
         <v>302.2658320988205</v>
@@ -1436,7 +1436,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.262802037461</v>
+        <v>5.791343867286352</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C13" t="n">
         <v>120.2716844800353</v>
@@ -1534,19 +1534,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G13" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T13" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U13" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V13" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W13" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X13" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="14">
@@ -1616,13 +1616,13 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>55.42080653413542</v>
       </c>
       <c r="H14" t="n">
-        <v>162.3079838703535</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
         <v>204.0200353403094</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247693</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>97.77987829572821</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1853,7 +1853,7 @@
         <v>315.6491785282537</v>
       </c>
       <c r="F17" t="n">
-        <v>340.5948541977033</v>
+        <v>340.5948541977034</v>
       </c>
       <c r="G17" t="n">
         <v>344.6405341094454</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>42.9065702441671</v>
+        <v>42.90657024416781</v>
       </c>
       <c r="T17" t="n">
         <v>137.6367785956121</v>
@@ -1901,13 +1901,13 @@
         <v>184.7139804148939</v>
       </c>
       <c r="V17" t="n">
-        <v>261.4710669261268</v>
+        <v>261.4710669261269</v>
       </c>
       <c r="W17" t="n">
-        <v>282.9597771734049</v>
+        <v>282.959777173405</v>
       </c>
       <c r="X17" t="n">
-        <v>303.4499091344609</v>
+        <v>303.449909134461</v>
       </c>
       <c r="Y17" t="n">
         <v>319.9567471120455</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>113.5507886379292</v>
+        <v>113.5507886379293</v>
       </c>
       <c r="C19" t="n">
         <v>100.9656295546198</v>
       </c>
       <c r="D19" t="n">
-        <v>82.33428147420427</v>
+        <v>82.33428147420432</v>
       </c>
       <c r="E19" t="n">
-        <v>80.15277110256109</v>
+        <v>80.15277110256113</v>
       </c>
       <c r="F19" t="n">
-        <v>79.13985647892316</v>
+        <v>79.13985647892321</v>
       </c>
       <c r="G19" t="n">
-        <v>99.74461671502014</v>
+        <v>99.74461671502019</v>
       </c>
       <c r="H19" t="n">
-        <v>78.4738233703127</v>
+        <v>78.47382337031274</v>
       </c>
       <c r="I19" t="n">
-        <v>30.07122886583003</v>
+        <v>30.07122886583007</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>22.65096112603926</v>
+        <v>22.65096112603931</v>
       </c>
       <c r="S19" t="n">
-        <v>123.4878337874338</v>
+        <v>123.4878337874339</v>
       </c>
       <c r="T19" t="n">
-        <v>153.2677577321611</v>
+        <v>153.2677577321612</v>
       </c>
       <c r="U19" t="n">
         <v>219.9306466616048</v>
       </c>
       <c r="V19" t="n">
-        <v>185.8564517798199</v>
+        <v>185.85645177982</v>
       </c>
       <c r="W19" t="n">
-        <v>220.2418067925829</v>
+        <v>220.241806792583</v>
       </c>
       <c r="X19" t="n">
         <v>159.4284638450291</v>
       </c>
       <c r="Y19" t="n">
-        <v>152.3034618080867</v>
+        <v>152.3034618080868</v>
       </c>
     </row>
     <row r="20">
@@ -2087,10 +2087,10 @@
         <v>288.4018500766749</v>
       </c>
       <c r="E20" t="n">
-        <v>315.6491785282537</v>
+        <v>315.6491785282534</v>
       </c>
       <c r="F20" t="n">
-        <v>340.5948541977033</v>
+        <v>340.5948541977034</v>
       </c>
       <c r="G20" t="n">
         <v>344.6405341094454</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>42.90657024416778</v>
+        <v>42.90657024416781</v>
       </c>
       <c r="T20" t="n">
-        <v>137.6367785956116</v>
+        <v>137.6367785956121</v>
       </c>
       <c r="U20" t="n">
         <v>184.7139804148939</v>
       </c>
       <c r="V20" t="n">
-        <v>261.4710669261268</v>
+        <v>261.4710669261269</v>
       </c>
       <c r="W20" t="n">
-        <v>282.9597771734049</v>
+        <v>282.959777173405</v>
       </c>
       <c r="X20" t="n">
-        <v>303.4499091344609</v>
+        <v>303.449909134461</v>
       </c>
       <c r="Y20" t="n">
         <v>319.9567471120455</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247717</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>113.5507886379292</v>
+        <v>113.5507886379293</v>
       </c>
       <c r="C22" t="n">
         <v>100.9656295546198</v>
       </c>
       <c r="D22" t="n">
-        <v>82.33428147420427</v>
+        <v>82.33428147420432</v>
       </c>
       <c r="E22" t="n">
-        <v>80.15277110256109</v>
+        <v>80.15277110256113</v>
       </c>
       <c r="F22" t="n">
-        <v>79.13985647892316</v>
+        <v>79.13985647892321</v>
       </c>
       <c r="G22" t="n">
-        <v>99.74461671502014</v>
+        <v>99.74461671502019</v>
       </c>
       <c r="H22" t="n">
-        <v>78.4738233703127</v>
+        <v>78.47382337031274</v>
       </c>
       <c r="I22" t="n">
-        <v>30.07122886583003</v>
+        <v>30.07122886583007</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>22.65096112603926</v>
+        <v>22.65096112603931</v>
       </c>
       <c r="S22" t="n">
-        <v>123.4878337874338</v>
+        <v>123.4878337874339</v>
       </c>
       <c r="T22" t="n">
-        <v>153.2677577321611</v>
+        <v>153.2677577321612</v>
       </c>
       <c r="U22" t="n">
         <v>219.9306466616048</v>
       </c>
       <c r="V22" t="n">
-        <v>185.8564517798199</v>
+        <v>185.85645177982</v>
       </c>
       <c r="W22" t="n">
-        <v>220.2418067925829</v>
+        <v>220.241806792583</v>
       </c>
       <c r="X22" t="n">
         <v>159.4284638450291</v>
       </c>
       <c r="Y22" t="n">
-        <v>152.3034618080867</v>
+        <v>152.3034618080868</v>
       </c>
     </row>
     <row r="23">
@@ -2327,7 +2327,7 @@
         <v>315.6491785282537</v>
       </c>
       <c r="F23" t="n">
-        <v>340.5948541977033</v>
+        <v>340.5948541977034</v>
       </c>
       <c r="G23" t="n">
         <v>344.6405341094454</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>42.90657024416778</v>
+        <v>42.90657024416781</v>
       </c>
       <c r="T23" t="n">
         <v>137.6367785956121</v>
@@ -2375,13 +2375,13 @@
         <v>184.7139804148939</v>
       </c>
       <c r="V23" t="n">
-        <v>261.4710669261268</v>
+        <v>261.4710669261269</v>
       </c>
       <c r="W23" t="n">
-        <v>282.9597771734049</v>
+        <v>282.959777173405</v>
       </c>
       <c r="X23" t="n">
-        <v>303.4499091344609</v>
+        <v>303.449909134461</v>
       </c>
       <c r="Y23" t="n">
         <v>319.9567471120455</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247717</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>113.5507886379292</v>
+        <v>113.5507886379293</v>
       </c>
       <c r="C25" t="n">
         <v>100.9656295546198</v>
       </c>
       <c r="D25" t="n">
-        <v>82.33428147420427</v>
+        <v>82.33428147420432</v>
       </c>
       <c r="E25" t="n">
-        <v>80.15277110256109</v>
+        <v>80.15277110256113</v>
       </c>
       <c r="F25" t="n">
-        <v>79.13985647892316</v>
+        <v>79.13985647892321</v>
       </c>
       <c r="G25" t="n">
-        <v>99.74461671502014</v>
+        <v>99.74461671502019</v>
       </c>
       <c r="H25" t="n">
-        <v>78.4738233703127</v>
+        <v>78.47382337031274</v>
       </c>
       <c r="I25" t="n">
-        <v>30.07122886583003</v>
+        <v>30.07122886583007</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>22.65096112603926</v>
+        <v>22.65096112603931</v>
       </c>
       <c r="S25" t="n">
-        <v>123.4878337874338</v>
+        <v>123.4878337874339</v>
       </c>
       <c r="T25" t="n">
-        <v>153.2677577321611</v>
+        <v>153.2677577321612</v>
       </c>
       <c r="U25" t="n">
         <v>219.9306466616048</v>
       </c>
       <c r="V25" t="n">
-        <v>185.8564517798199</v>
+        <v>185.85645177982</v>
       </c>
       <c r="W25" t="n">
-        <v>220.2418067925829</v>
+        <v>220.241806792583</v>
       </c>
       <c r="X25" t="n">
         <v>159.4284638450291</v>
       </c>
       <c r="Y25" t="n">
-        <v>152.3034618080867</v>
+        <v>152.3034618080868</v>
       </c>
     </row>
     <row r="26">
@@ -2558,16 +2558,16 @@
         <v>323.6959619980815</v>
       </c>
       <c r="D26" t="n">
-        <v>313.1061118477569</v>
+        <v>313.106111847757</v>
       </c>
       <c r="E26" t="n">
         <v>340.3534402993358</v>
       </c>
       <c r="F26" t="n">
-        <v>365.2991159687854</v>
+        <v>365.2991159687855</v>
       </c>
       <c r="G26" t="n">
-        <v>369.3447958805274</v>
+        <v>369.3447958805275</v>
       </c>
       <c r="H26" t="n">
         <v>253.0308346143945</v>
@@ -2615,10 +2615,10 @@
         <v>286.1753286972089</v>
       </c>
       <c r="W26" t="n">
-        <v>307.664038944487</v>
+        <v>307.6640389444871</v>
       </c>
       <c r="X26" t="n">
-        <v>328.154170905543</v>
+        <v>328.1541709055431</v>
       </c>
       <c r="Y26" t="n">
         <v>344.6610088831276</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247665</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,10 +2713,10 @@
         <v>138.2550504090113</v>
       </c>
       <c r="C28" t="n">
-        <v>125.6698913257018</v>
+        <v>125.6698913257019</v>
       </c>
       <c r="D28" t="n">
-        <v>107.0385432452864</v>
+        <v>102.7898519652205</v>
       </c>
       <c r="E28" t="n">
         <v>104.8570328736432</v>
@@ -2725,13 +2725,13 @@
         <v>103.8441182500053</v>
       </c>
       <c r="G28" t="n">
-        <v>124.4488784861022</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>103.1780851413948</v>
       </c>
       <c r="I28" t="n">
-        <v>54.77549063691212</v>
+        <v>54.77549063691213</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>47.35522289712137</v>
       </c>
       <c r="S28" t="n">
         <v>148.1920955585159</v>
@@ -2767,7 +2767,7 @@
         <v>177.9720195032432</v>
       </c>
       <c r="U28" t="n">
-        <v>244.6349084326868</v>
+        <v>244.6349084326869</v>
       </c>
       <c r="V28" t="n">
         <v>210.560713550902</v>
@@ -2776,10 +2776,10 @@
         <v>244.946068563665</v>
       </c>
       <c r="X28" t="n">
-        <v>184.1327256161111</v>
+        <v>184.1327256161112</v>
       </c>
       <c r="Y28" t="n">
-        <v>95.66537671012236</v>
+        <v>177.0077235791688</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2792,7 @@
         <v>341.1569118905547</v>
       </c>
       <c r="C29" t="n">
-        <v>323.6959619980817</v>
+        <v>323.6959619980818</v>
       </c>
       <c r="D29" t="n">
         <v>313.1061118477571</v>
@@ -2801,13 +2801,13 @@
         <v>340.3534402993359</v>
       </c>
       <c r="F29" t="n">
-        <v>365.2991159687855</v>
+        <v>365.2991159687856</v>
       </c>
       <c r="G29" t="n">
         <v>369.3447958805276</v>
       </c>
       <c r="H29" t="n">
-        <v>253.0308346143945</v>
+        <v>253.0308346143946</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>67.61083201524993</v>
+        <v>67.61083201525004</v>
       </c>
       <c r="T29" t="n">
-        <v>162.3410403666942</v>
+        <v>162.3410403666944</v>
       </c>
       <c r="U29" t="n">
-        <v>209.4182421859761</v>
+        <v>209.4182421859762</v>
       </c>
       <c r="V29" t="n">
-        <v>286.175328697209</v>
+        <v>286.1753286972091</v>
       </c>
       <c r="W29" t="n">
-        <v>307.6640389444871</v>
+        <v>307.6640389444872</v>
       </c>
       <c r="X29" t="n">
-        <v>328.1541709055431</v>
+        <v>328.1541709055432</v>
       </c>
       <c r="Y29" t="n">
-        <v>344.6610088831277</v>
+        <v>344.6610088831278</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>138.2550504090114</v>
+        <v>138.2550504090115</v>
       </c>
       <c r="C31" t="n">
-        <v>51.74781219644473</v>
+        <v>125.669891325702</v>
       </c>
       <c r="D31" t="n">
-        <v>107.0385432452864</v>
+        <v>107.0385432452865</v>
       </c>
       <c r="E31" t="n">
-        <v>104.8570328736432</v>
+        <v>104.8570328736434</v>
       </c>
       <c r="F31" t="n">
-        <v>103.8441182500053</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>124.4488784861023</v>
+        <v>124.4488784861024</v>
       </c>
       <c r="H31" t="n">
-        <v>103.1780851413949</v>
+        <v>103.178085141395</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>29.92203912074576</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>47.35522289712142</v>
+        <v>47.35522289712154</v>
       </c>
       <c r="S31" t="n">
-        <v>148.192095558516</v>
+        <v>148.1920955585161</v>
       </c>
       <c r="T31" t="n">
-        <v>177.9720195032433</v>
+        <v>177.9720195032434</v>
       </c>
       <c r="U31" t="n">
-        <v>244.6349084326869</v>
+        <v>244.634908432687</v>
       </c>
       <c r="V31" t="n">
-        <v>210.5607135509021</v>
+        <v>210.5607135509022</v>
       </c>
       <c r="W31" t="n">
-        <v>244.9460685636651</v>
+        <v>244.9460685636652</v>
       </c>
       <c r="X31" t="n">
-        <v>184.1327256161112</v>
+        <v>184.1327256161113</v>
       </c>
       <c r="Y31" t="n">
-        <v>177.0077235791689</v>
+        <v>177.007723579169</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>339.2508720109523</v>
+        <v>339.2508720109522</v>
       </c>
       <c r="C32" t="n">
         <v>321.7899221184792</v>
@@ -3035,7 +3035,7 @@
         <v>311.2000719681546</v>
       </c>
       <c r="E32" t="n">
-        <v>338.4474004197335</v>
+        <v>338.4474004197334</v>
       </c>
       <c r="F32" t="n">
         <v>363.3930760891831</v>
@@ -3086,16 +3086,16 @@
         <v>207.5122023063736</v>
       </c>
       <c r="V32" t="n">
-        <v>284.2692888176066</v>
+        <v>284.2692888176065</v>
       </c>
       <c r="W32" t="n">
-        <v>305.7579990648847</v>
+        <v>305.7579990648846</v>
       </c>
       <c r="X32" t="n">
         <v>326.2481310259407</v>
       </c>
       <c r="Y32" t="n">
-        <v>342.7549690035253</v>
+        <v>342.7549690035252</v>
       </c>
     </row>
     <row r="33">
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247712</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>136.349010529409</v>
+        <v>136.3490105294089</v>
       </c>
       <c r="C34" t="n">
         <v>123.7638514460995</v>
       </c>
       <c r="D34" t="n">
-        <v>21.87644916114057</v>
+        <v>105.132503365684</v>
       </c>
       <c r="E34" t="n">
         <v>102.9509929940408</v>
@@ -3202,10 +3202,10 @@
         <v>122.5428386064999</v>
       </c>
       <c r="H34" t="n">
-        <v>101.2720452617925</v>
+        <v>18.0159910572493</v>
       </c>
       <c r="I34" t="n">
-        <v>52.86945075730977</v>
+        <v>52.86945075730976</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>45.44918301751902</v>
+        <v>45.44918301751898</v>
       </c>
       <c r="S34" t="n">
-        <v>146.2860556789136</v>
+        <v>146.2860556789135</v>
       </c>
       <c r="T34" t="n">
-        <v>176.0659796236409</v>
+        <v>176.0659796236408</v>
       </c>
       <c r="U34" t="n">
         <v>242.7288685530845</v>
       </c>
       <c r="V34" t="n">
-        <v>208.6546736712997</v>
+        <v>208.6546736712996</v>
       </c>
       <c r="W34" t="n">
-        <v>243.0400286840627</v>
+        <v>243.0400286840626</v>
       </c>
       <c r="X34" t="n">
         <v>182.2266857365088</v>
       </c>
       <c r="Y34" t="n">
-        <v>175.1016836995665</v>
+        <v>175.1016836995664</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>313.4878301973776</v>
+        <v>313.4878301973775</v>
       </c>
       <c r="C35" t="n">
-        <v>296.0268803049046</v>
+        <v>296.0268803049045</v>
       </c>
       <c r="D35" t="n">
-        <v>285.43703015458</v>
+        <v>285.4370301545799</v>
       </c>
       <c r="E35" t="n">
         <v>312.6843586061588</v>
       </c>
       <c r="F35" t="n">
-        <v>337.6300342756085</v>
+        <v>337.6300342756084</v>
       </c>
       <c r="G35" t="n">
-        <v>341.6757141873505</v>
+        <v>341.6757141873504</v>
       </c>
       <c r="H35" t="n">
-        <v>225.3617529212175</v>
+        <v>225.3617529212174</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>39.94175032207288</v>
+        <v>39.94175032207282</v>
       </c>
       <c r="T35" t="n">
-        <v>134.6719586735172</v>
+        <v>134.6719586735171</v>
       </c>
       <c r="U35" t="n">
-        <v>181.749160492799</v>
+        <v>181.7491604927989</v>
       </c>
       <c r="V35" t="n">
         <v>258.5062470040319</v>
@@ -3329,7 +3329,7 @@
         <v>279.99495725131</v>
       </c>
       <c r="X35" t="n">
-        <v>300.4850892123661</v>
+        <v>300.485089212366</v>
       </c>
       <c r="Y35" t="n">
         <v>316.9919271899506</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247657</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,25 +3424,25 @@
         <v>110.5859687158343</v>
       </c>
       <c r="C37" t="n">
-        <v>98.00080963252486</v>
+        <v>98.00080963252481</v>
       </c>
       <c r="D37" t="n">
-        <v>79.36946155210939</v>
+        <v>79.36946155210933</v>
       </c>
       <c r="E37" t="n">
-        <v>77.1879511804662</v>
+        <v>77.18795118046614</v>
       </c>
       <c r="F37" t="n">
-        <v>76.17503655682827</v>
+        <v>76.17503655682822</v>
       </c>
       <c r="G37" t="n">
-        <v>96.77979679292525</v>
+        <v>96.7797967929252</v>
       </c>
       <c r="H37" t="n">
-        <v>75.50900344821781</v>
+        <v>75.50900344821775</v>
       </c>
       <c r="I37" t="n">
-        <v>27.10640894373514</v>
+        <v>27.10640894373508</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>19.68614120394437</v>
+        <v>19.68614120394432</v>
       </c>
       <c r="S37" t="n">
         <v>120.5230138653389</v>
@@ -3478,7 +3478,7 @@
         <v>150.3029378100662</v>
       </c>
       <c r="U37" t="n">
-        <v>216.9658267395099</v>
+        <v>216.9658267395098</v>
       </c>
       <c r="V37" t="n">
         <v>182.891631857725</v>
@@ -3487,7 +3487,7 @@
         <v>217.276986870488</v>
       </c>
       <c r="X37" t="n">
-        <v>156.4636439229342</v>
+        <v>156.4636439229341</v>
       </c>
       <c r="Y37" t="n">
         <v>149.3386418859918</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>39.94175032207279</v>
+        <v>39.94175032207281</v>
       </c>
       <c r="T38" t="n">
         <v>134.6719586735171</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,22 +3661,22 @@
         <v>110.5859687158343</v>
       </c>
       <c r="C40" t="n">
-        <v>98.00080963252479</v>
+        <v>98.00080963252481</v>
       </c>
       <c r="D40" t="n">
-        <v>79.36946155210931</v>
+        <v>79.36946155210933</v>
       </c>
       <c r="E40" t="n">
-        <v>77.18795118046613</v>
+        <v>77.18795118046614</v>
       </c>
       <c r="F40" t="n">
-        <v>76.1750365568282</v>
+        <v>76.17503655682822</v>
       </c>
       <c r="G40" t="n">
-        <v>96.77979679292518</v>
+        <v>96.7797967929252</v>
       </c>
       <c r="H40" t="n">
-        <v>75.50900344821774</v>
+        <v>75.50900344821775</v>
       </c>
       <c r="I40" t="n">
         <v>27.10640894373507</v>
@@ -3740,22 +3740,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231188</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>232.5545998123409</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3800,10 +3800,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>147.6721943364654</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X41" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
         <v>339.262802037461</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797657</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572818</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3961,7 +3961,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
         <v>171.6095167335022</v>
@@ -3974,22 +3974,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>335.7587050448879</v>
+        <v>335.7587050448878</v>
       </c>
       <c r="C44" t="n">
-        <v>198.9859594090942</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020902</v>
       </c>
       <c r="E44" t="n">
-        <v>334.9552334536691</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231188</v>
+        <v>232.5545998123422</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348607</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>62.21262516958315</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210275</v>
@@ -4034,13 +4034,13 @@
         <v>204.0200353403093</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>280.7771218515422</v>
       </c>
       <c r="W44" t="n">
         <v>302.2658320988203</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598763</v>
       </c>
       <c r="Y44" t="n">
         <v>339.2628020374609</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633446</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800351</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996228</v>
       </c>
       <c r="E46" t="n">
-        <v>99.4588260279765</v>
+        <v>99.45882602797647</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433857</v>
+        <v>98.44591140433855</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404355</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572811</v>
+        <v>97.77987829572808</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124724</v>
+        <v>49.37728379124541</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.9570160514547</v>
+        <v>41.95701605145464</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128492</v>
       </c>
       <c r="T46" t="n">
         <v>172.5738126575765</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870201</v>
       </c>
       <c r="V46" t="n">
         <v>205.1625067052353</v>
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C8" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D8" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E8" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F8" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G8" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H8" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I8" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J8" t="n">
         <v>0.5500836593369149</v>
@@ -4808,46 +4808,46 @@
         <v>7.357368943631237</v>
       </c>
       <c r="L8" t="n">
-        <v>14.16465422792556</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M8" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N8" t="n">
         <v>20.69689768255142</v>
       </c>
       <c r="O8" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P8" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q8" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R8" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S8" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="T8" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="U8" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="V8" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="W8" t="n">
         <v>21.38658590694733</v>
       </c>
       <c r="X8" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C9" t="n">
-        <v>22.14071855973305</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D9" t="n">
-        <v>15.19521781052957</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E9" t="n">
-        <v>8.2497170613261</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F9" t="n">
-        <v>8.2497170613261</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G9" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H9" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I9" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J9" t="n">
         <v>0.5500836593369149</v>
@@ -4890,43 +4890,43 @@
         <v>7.357368943631237</v>
       </c>
       <c r="M9" t="n">
+        <v>7.357368943631237</v>
+      </c>
+      <c r="N9" t="n">
         <v>13.8896123982571</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>20.69689768255142</v>
       </c>
-      <c r="O9" t="n">
-        <v>27.50418296684575</v>
-      </c>
       <c r="P9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="Q9" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S9" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="T9" t="n">
-        <v>27.50418296684575</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="U9" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="V9" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="W9" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X9" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y9" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C10" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D10" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E10" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H10" t="n">
         <v>0.5500836593369149</v>
@@ -4969,10 +4969,10 @@
         <v>7.357368943631237</v>
       </c>
       <c r="M10" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N10" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O10" t="n">
         <v>27.50418296684575</v>
@@ -4981,31 +4981,31 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="R10" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S10" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T10" t="n">
-        <v>27.50418296684575</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U10" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="V10" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="W10" t="n">
-        <v>27.50418296684575</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="X10" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y10" t="n">
-        <v>27.50418296684575</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1992.372126563728</v>
+        <v>1680.989770459988</v>
       </c>
       <c r="C11" t="n">
-        <v>1670.859242571389</v>
+        <v>1359.476886467649</v>
       </c>
       <c r="D11" t="n">
-        <v>1360.043176912712</v>
+        <v>1048.660820808972</v>
       </c>
       <c r="E11" t="n">
-        <v>1021.704557262541</v>
+        <v>1048.660820808972</v>
       </c>
       <c r="F11" t="n">
-        <v>658.168285421007</v>
+        <v>685.1245489674377</v>
       </c>
       <c r="G11" t="n">
         <v>317.5017317605074</v>
       </c>
       <c r="H11" t="n">
-        <v>67.36776431734786</v>
+        <v>67.36776431734791</v>
       </c>
       <c r="I11" t="n">
-        <v>67.36776431734786</v>
+        <v>67.36776431734791</v>
       </c>
       <c r="J11" t="n">
-        <v>256.2468952763733</v>
+        <v>298.1736416494333</v>
       </c>
       <c r="K11" t="n">
-        <v>590.0662689662198</v>
+        <v>631.9930153392797</v>
       </c>
       <c r="L11" t="n">
-        <v>1041.100482214629</v>
+        <v>1083.027228587689</v>
       </c>
       <c r="M11" t="n">
-        <v>1574.632386886553</v>
+        <v>1616.559133259613</v>
       </c>
       <c r="N11" t="n">
-        <v>2121.411203945336</v>
+        <v>2163.337950318396</v>
       </c>
       <c r="O11" t="n">
-        <v>2624.383674824673</v>
+        <v>2666.310421197732</v>
       </c>
       <c r="P11" t="n">
-        <v>3019.158041181851</v>
+        <v>3061.084787554911</v>
       </c>
       <c r="Q11" t="n">
-        <v>3309.371149310591</v>
+        <v>3309.371149310593</v>
       </c>
       <c r="R11" t="n">
-        <v>3368.388215867393</v>
+        <v>3368.388215867396</v>
       </c>
       <c r="S11" t="n">
-        <v>3305.547180342562</v>
+        <v>3305.547180342564</v>
       </c>
       <c r="T11" t="n">
-        <v>3305.547180342562</v>
+        <v>3147.019065674859</v>
       </c>
       <c r="U11" t="n">
-        <v>3305.547180342562</v>
+        <v>2940.938221896769</v>
       </c>
       <c r="V11" t="n">
-        <v>3305.547180342562</v>
+        <v>2657.324967501272</v>
       </c>
       <c r="W11" t="n">
-        <v>3000.228158020521</v>
+        <v>2352.005945179231</v>
       </c>
       <c r="X11" t="n">
-        <v>2674.212032707514</v>
+        <v>2025.989819866224</v>
       </c>
       <c r="Y11" t="n">
-        <v>2331.522333679776</v>
+        <v>2020.139977576036</v>
       </c>
     </row>
     <row r="12">
@@ -5109,22 +5109,22 @@
         <v>313.2400504453237</v>
       </c>
       <c r="G12" t="n">
-        <v>176.8769502779426</v>
+        <v>176.8769502779425</v>
       </c>
       <c r="H12" t="n">
-        <v>86.37505591581021</v>
+        <v>86.37505591580987</v>
       </c>
       <c r="I12" t="n">
-        <v>67.36776431734786</v>
+        <v>67.36776431734791</v>
       </c>
       <c r="J12" t="n">
-        <v>161.045033807965</v>
+        <v>161.0450338079655</v>
       </c>
       <c r="K12" t="n">
-        <v>399.309232788312</v>
+        <v>399.3092327883124</v>
       </c>
       <c r="L12" t="n">
-        <v>766.0073931009774</v>
+        <v>766.0073931009775</v>
       </c>
       <c r="M12" t="n">
         <v>1213.283718323293</v>
@@ -5173,7 +5173,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>760.3218976904589</v>
+        <v>760.321897690459</v>
       </c>
       <c r="C13" t="n">
         <v>638.8353477106252</v>
@@ -5191,19 +5191,19 @@
         <v>216.0113623849982</v>
       </c>
       <c r="H13" t="n">
-        <v>117.2438085509292</v>
+        <v>117.2438085509293</v>
       </c>
       <c r="I13" t="n">
-        <v>67.36776431734786</v>
+        <v>67.36776431734791</v>
       </c>
       <c r="J13" t="n">
-        <v>158.9957820166899</v>
+        <v>158.9957820166902</v>
       </c>
       <c r="K13" t="n">
-        <v>409.4883502179729</v>
+        <v>409.4883502179732</v>
       </c>
       <c r="L13" t="n">
-        <v>772.5535339188757</v>
+        <v>772.553533918876</v>
       </c>
       <c r="M13" t="n">
         <v>1163.215964770832</v>
@@ -5233,7 +5233,7 @@
         <v>1697.605986064727</v>
       </c>
       <c r="V13" t="n">
-        <v>1490.371130806913</v>
+        <v>1490.371130806914</v>
       </c>
       <c r="W13" t="n">
         <v>1248.403593718026</v>
@@ -5242,7 +5242,7 @@
         <v>1067.863675768082</v>
       </c>
       <c r="Y13" t="n">
-        <v>894.5207295726251</v>
+        <v>894.5207295726254</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1565.519063914971</v>
+        <v>1344.149913722437</v>
       </c>
       <c r="C14" t="n">
-        <v>1244.006179922633</v>
+        <v>1022.637029730098</v>
       </c>
       <c r="D14" t="n">
-        <v>933.1901142639556</v>
+        <v>711.8209640714213</v>
       </c>
       <c r="E14" t="n">
-        <v>594.8514946137847</v>
+        <v>373.4823444212503</v>
       </c>
       <c r="F14" t="n">
-        <v>231.3152227722504</v>
+        <v>373.4823444212503</v>
       </c>
       <c r="G14" t="n">
-        <v>231.3152227722504</v>
+        <v>317.5017317605075</v>
       </c>
       <c r="H14" t="n">
-        <v>67.36776431734786</v>
+        <v>67.36776431734791</v>
       </c>
       <c r="I14" t="n">
-        <v>67.36776431734786</v>
+        <v>67.36776431734791</v>
       </c>
       <c r="J14" t="n">
         <v>256.2468952763733</v>
@@ -5285,43 +5285,43 @@
         <v>1041.100482214628</v>
       </c>
       <c r="M14" t="n">
-        <v>1574.632386886552</v>
+        <v>1616.559133259613</v>
       </c>
       <c r="N14" t="n">
-        <v>2121.411203945335</v>
+        <v>2163.337950318396</v>
       </c>
       <c r="O14" t="n">
-        <v>2624.383674824672</v>
+        <v>2666.310421197732</v>
       </c>
       <c r="P14" t="n">
-        <v>3019.15804118185</v>
+        <v>3061.08478755491</v>
       </c>
       <c r="Q14" t="n">
-        <v>3309.371149310591</v>
+        <v>3309.371149310593</v>
       </c>
       <c r="R14" t="n">
-        <v>3368.388215867393</v>
+        <v>3368.388215867395</v>
       </c>
       <c r="S14" t="n">
-        <v>3368.388215867393</v>
+        <v>3305.547180342563</v>
       </c>
       <c r="T14" t="n">
-        <v>3368.388215867393</v>
+        <v>3147.019065674859</v>
       </c>
       <c r="U14" t="n">
-        <v>3162.307372089303</v>
+        <v>2940.938221896768</v>
       </c>
       <c r="V14" t="n">
-        <v>2878.694117693806</v>
+        <v>2657.324967501271</v>
       </c>
       <c r="W14" t="n">
-        <v>2573.375095371765</v>
+        <v>2352.00594517923</v>
       </c>
       <c r="X14" t="n">
-        <v>2247.358970058758</v>
+        <v>2025.989819866224</v>
       </c>
       <c r="Y14" t="n">
-        <v>1904.66927103102</v>
+        <v>1683.300120838485</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>942.3995023662732</v>
+        <v>942.3995023662726</v>
       </c>
       <c r="C15" t="n">
-        <v>767.9464730851462</v>
+        <v>767.9464730851456</v>
       </c>
       <c r="D15" t="n">
-        <v>619.0120634238949</v>
+        <v>619.0120634238943</v>
       </c>
       <c r="E15" t="n">
-        <v>459.7746084184394</v>
+        <v>459.7746084184388</v>
       </c>
       <c r="F15" t="n">
-        <v>313.2400504453243</v>
+        <v>313.2400504453238</v>
       </c>
       <c r="G15" t="n">
-        <v>176.8769502779424</v>
+        <v>176.8769502779419</v>
       </c>
       <c r="H15" t="n">
-        <v>86.37505591580992</v>
+        <v>86.37505591580945</v>
       </c>
       <c r="I15" t="n">
-        <v>67.36776431734786</v>
+        <v>67.36776431734791</v>
       </c>
       <c r="J15" t="n">
-        <v>161.0450338079651</v>
+        <v>161.0450338079652</v>
       </c>
       <c r="K15" t="n">
-        <v>399.3092327883122</v>
+        <v>399.3092327883123</v>
       </c>
       <c r="L15" t="n">
-        <v>766.0073931009774</v>
+        <v>766.0073931009775</v>
       </c>
       <c r="M15" t="n">
         <v>1213.283718323293</v>
@@ -5376,16 +5376,16 @@
         <v>2408.267632771905</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.909190418506</v>
+        <v>2565.909190418505</v>
       </c>
       <c r="R15" t="n">
         <v>2565.764837011021</v>
       </c>
       <c r="S15" t="n">
-        <v>2436.326950504501</v>
+        <v>2436.3269505045</v>
       </c>
       <c r="T15" t="n">
-        <v>2243.683950182357</v>
+        <v>2243.683950182356</v>
       </c>
       <c r="U15" t="n">
         <v>2015.616103316772</v>
@@ -5394,7 +5394,7 @@
         <v>1780.463995085029</v>
       </c>
       <c r="W15" t="n">
-        <v>1526.226638356828</v>
+        <v>1526.226638356827</v>
       </c>
       <c r="X15" t="n">
         <v>1318.375138151295</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>760.3218976904589</v>
+        <v>760.3218976904586</v>
       </c>
       <c r="C16" t="n">
-        <v>638.8353477106252</v>
+        <v>638.835347710625</v>
       </c>
       <c r="D16" t="n">
-        <v>536.1683412463628</v>
+        <v>536.1683412463626</v>
       </c>
       <c r="E16" t="n">
-        <v>435.704880612043</v>
+        <v>435.7048806120429</v>
       </c>
       <c r="F16" t="n">
-        <v>336.2645660622059</v>
+        <v>336.2645660622058</v>
       </c>
       <c r="G16" t="n">
-        <v>216.0113623849982</v>
+        <v>216.0113623849981</v>
       </c>
       <c r="H16" t="n">
         <v>117.2438085509293</v>
       </c>
       <c r="I16" t="n">
-        <v>67.36776431734786</v>
+        <v>67.36776431734791</v>
       </c>
       <c r="J16" t="n">
-        <v>158.9957820166901</v>
+        <v>158.99578201669</v>
       </c>
       <c r="K16" t="n">
         <v>409.488350217973</v>
       </c>
       <c r="L16" t="n">
-        <v>772.5535339188758</v>
+        <v>772.5535339188757</v>
       </c>
       <c r="M16" t="n">
         <v>1163.215964770831</v>
@@ -5449,13 +5449,13 @@
         <v>1551.129726729102</v>
       </c>
       <c r="O16" t="n">
-        <v>1896.964710901923</v>
+        <v>1896.964710901922</v>
       </c>
       <c r="P16" t="n">
         <v>2176.077596587988</v>
       </c>
       <c r="Q16" t="n">
-        <v>2300.19327799291</v>
+        <v>2300.193277992909</v>
       </c>
       <c r="R16" t="n">
         <v>2257.812453698511</v>
@@ -5467,7 +5467,7 @@
         <v>1939.25921999101</v>
       </c>
       <c r="U16" t="n">
-        <v>1697.605986064726</v>
+        <v>1697.605986064727</v>
       </c>
       <c r="V16" t="n">
         <v>1490.371130806913</v>
@@ -5479,7 +5479,7 @@
         <v>1067.863675768082</v>
       </c>
       <c r="Y16" t="n">
-        <v>894.5207295726252</v>
+        <v>894.520729572625</v>
       </c>
     </row>
     <row r="17">
@@ -5498,49 +5498,49 @@
         <v>1317.202597690365</v>
       </c>
       <c r="E17" t="n">
-        <v>998.3650436214218</v>
+        <v>998.365043621422</v>
       </c>
       <c r="F17" t="n">
-        <v>654.3298373611153</v>
+        <v>654.3298373611156</v>
       </c>
       <c r="G17" t="n">
-        <v>306.2080857354129</v>
+        <v>306.208085735413</v>
       </c>
       <c r="H17" t="n">
-        <v>75.57518387348121</v>
+        <v>75.57518387348124</v>
       </c>
       <c r="I17" t="n">
-        <v>75.57518387348121</v>
+        <v>75.57518387348124</v>
       </c>
       <c r="J17" t="n">
-        <v>431.8599638528596</v>
+        <v>264.4543148325066</v>
       </c>
       <c r="K17" t="n">
-        <v>765.679337542706</v>
+        <v>598.273688522353</v>
       </c>
       <c r="L17" t="n">
-        <v>1216.713550791115</v>
+        <v>1049.307901770762</v>
       </c>
       <c r="M17" t="n">
-        <v>1750.245455463039</v>
+        <v>1582.839806442686</v>
       </c>
       <c r="N17" t="n">
-        <v>2297.024272521821</v>
+        <v>2129.618623501468</v>
       </c>
       <c r="O17" t="n">
-        <v>2799.996743401158</v>
+        <v>2632.591094380805</v>
       </c>
       <c r="P17" t="n">
-        <v>3196.204668934017</v>
+        <v>3196.204668934019</v>
       </c>
       <c r="Q17" t="n">
-        <v>3654.682871443005</v>
+        <v>3654.682871443007</v>
       </c>
       <c r="R17" t="n">
-        <v>3778.75919367406</v>
+        <v>3778.759193674062</v>
       </c>
       <c r="S17" t="n">
-        <v>3735.419223730457</v>
+        <v>3735.419223730458</v>
       </c>
       <c r="T17" t="n">
         <v>3596.392174643981</v>
@@ -5549,7 +5549,7 @@
         <v>3409.812396447118</v>
       </c>
       <c r="V17" t="n">
-        <v>3145.700207632848</v>
+        <v>3145.700207632849</v>
       </c>
       <c r="W17" t="n">
         <v>2859.882250892035</v>
@@ -5580,40 +5580,40 @@
         <v>467.9820279745727</v>
       </c>
       <c r="F18" t="n">
-        <v>321.4474700014576</v>
+        <v>321.4474700014577</v>
       </c>
       <c r="G18" t="n">
-        <v>185.0843698340757</v>
+        <v>185.0843698340758</v>
       </c>
       <c r="H18" t="n">
-        <v>94.58247547194327</v>
+        <v>94.5824754719433</v>
       </c>
       <c r="I18" t="n">
-        <v>75.57518387348121</v>
+        <v>75.57518387348124</v>
       </c>
       <c r="J18" t="n">
-        <v>169.2524533640985</v>
+        <v>169.2524533640989</v>
       </c>
       <c r="K18" t="n">
-        <v>407.5166523444456</v>
+        <v>407.516652344446</v>
       </c>
       <c r="L18" t="n">
-        <v>774.2148126571108</v>
+        <v>774.2148126571112</v>
       </c>
       <c r="M18" t="n">
         <v>1221.491137879427</v>
       </c>
       <c r="N18" t="n">
-        <v>1695.014181433881</v>
+        <v>1695.014181433882</v>
       </c>
       <c r="O18" t="n">
         <v>2105.975460851936</v>
       </c>
       <c r="P18" t="n">
-        <v>2416.475052328038</v>
+        <v>2416.475052328039</v>
       </c>
       <c r="Q18" t="n">
-        <v>2574.116609974638</v>
+        <v>2574.116609974639</v>
       </c>
       <c r="R18" t="n">
         <v>2573.972256567154</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.0218581779975</v>
+        <v>632.021858177998</v>
       </c>
       <c r="C19" t="n">
-        <v>530.0363737793917</v>
+        <v>530.0363737793921</v>
       </c>
       <c r="D19" t="n">
-        <v>446.8704328963571</v>
+        <v>446.8704328963574</v>
       </c>
       <c r="E19" t="n">
-        <v>365.9080378432651</v>
+        <v>365.9080378432653</v>
       </c>
       <c r="F19" t="n">
-        <v>285.9687888746558</v>
+        <v>285.968788874656</v>
       </c>
       <c r="G19" t="n">
-        <v>185.2166507786759</v>
+        <v>185.216650778676</v>
       </c>
       <c r="H19" t="n">
-        <v>105.9501625258348</v>
+        <v>105.9501625258349</v>
       </c>
       <c r="I19" t="n">
-        <v>75.57518387348121</v>
+        <v>75.57518387348124</v>
       </c>
       <c r="J19" t="n">
-        <v>120.6978163204167</v>
+        <v>120.6978163204168</v>
       </c>
       <c r="K19" t="n">
-        <v>384.7110319889011</v>
+        <v>324.6849992692931</v>
       </c>
       <c r="L19" t="n">
-        <v>701.2708304373972</v>
+        <v>641.2447977177892</v>
       </c>
       <c r="M19" t="n">
-        <v>1045.427876036946</v>
+        <v>985.4018433173381</v>
       </c>
       <c r="N19" t="n">
-        <v>1386.836252742811</v>
+        <v>1386.836252742812</v>
       </c>
       <c r="O19" t="n">
-        <v>1686.165851663224</v>
+        <v>1686.165851663226</v>
       </c>
       <c r="P19" t="n">
-        <v>1918.773352096883</v>
+        <v>1918.773352096885</v>
       </c>
       <c r="Q19" t="n">
-        <v>1996.383648249398</v>
+        <v>1996.383648249399</v>
       </c>
       <c r="R19" t="n">
-        <v>1973.503889536227</v>
+        <v>1973.503889536228</v>
       </c>
       <c r="S19" t="n">
-        <v>1848.768703892355</v>
+        <v>1848.768703892356</v>
       </c>
       <c r="T19" t="n">
-        <v>1693.952786991182</v>
+        <v>1693.952786991183</v>
       </c>
       <c r="U19" t="n">
-        <v>1471.800618646126</v>
+        <v>1471.800618646128</v>
       </c>
       <c r="V19" t="n">
-        <v>1284.066828969541</v>
+        <v>1284.066828969542</v>
       </c>
       <c r="W19" t="n">
-        <v>1061.600357461881</v>
+        <v>1061.600357461882</v>
       </c>
       <c r="X19" t="n">
-        <v>900.5615050931651</v>
+        <v>900.5615050931656</v>
       </c>
       <c r="Y19" t="n">
-        <v>746.7196244789361</v>
+        <v>746.7196244789366</v>
       </c>
     </row>
     <row r="20">
@@ -5735,49 +5735,49 @@
         <v>1317.202597690365</v>
       </c>
       <c r="E20" t="n">
-        <v>998.3650436214218</v>
+        <v>998.365043621422</v>
       </c>
       <c r="F20" t="n">
-        <v>654.3298373611153</v>
+        <v>654.3298373611156</v>
       </c>
       <c r="G20" t="n">
-        <v>306.2080857354129</v>
+        <v>306.208085735413</v>
       </c>
       <c r="H20" t="n">
-        <v>75.57518387348121</v>
+        <v>75.57518387348124</v>
       </c>
       <c r="I20" t="n">
-        <v>75.57518387348121</v>
+        <v>75.57518387348124</v>
       </c>
       <c r="J20" t="n">
-        <v>431.8599638528596</v>
+        <v>266.4931843317303</v>
       </c>
       <c r="K20" t="n">
-        <v>765.679337542706</v>
+        <v>600.3125580215767</v>
       </c>
       <c r="L20" t="n">
-        <v>1216.713550791115</v>
+        <v>1051.346771269985</v>
       </c>
       <c r="M20" t="n">
-        <v>1750.245455463039</v>
+        <v>1584.87867594191</v>
       </c>
       <c r="N20" t="n">
-        <v>2297.024272521821</v>
+        <v>2131.657493000692</v>
       </c>
       <c r="O20" t="n">
-        <v>2799.996743401158</v>
+        <v>3011.622143330147</v>
       </c>
       <c r="P20" t="n">
-        <v>3196.204668934017</v>
+        <v>3406.396509687324</v>
       </c>
       <c r="Q20" t="n">
-        <v>3654.682871443005</v>
+        <v>3654.682871443007</v>
       </c>
       <c r="R20" t="n">
-        <v>3778.75919367406</v>
+        <v>3778.759193674062</v>
       </c>
       <c r="S20" t="n">
-        <v>3735.419223730457</v>
+        <v>3735.419223730458</v>
       </c>
       <c r="T20" t="n">
         <v>3596.392174643981</v>
@@ -5786,7 +5786,7 @@
         <v>3409.812396447118</v>
       </c>
       <c r="V20" t="n">
-        <v>3145.700207632848</v>
+        <v>3145.700207632849</v>
       </c>
       <c r="W20" t="n">
         <v>2859.882250892035</v>
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>950.6069219224065</v>
+        <v>950.6069219224062</v>
       </c>
       <c r="C21" t="n">
-        <v>776.1538926412795</v>
+        <v>776.1538926412792</v>
       </c>
       <c r="D21" t="n">
-        <v>627.2194829800283</v>
+        <v>627.2194829800279</v>
       </c>
       <c r="E21" t="n">
-        <v>467.9820279745727</v>
+        <v>467.9820279745724</v>
       </c>
       <c r="F21" t="n">
-        <v>321.4474700014576</v>
+        <v>321.4474700014574</v>
       </c>
       <c r="G21" t="n">
-        <v>185.0843698340757</v>
+        <v>185.0843698340755</v>
       </c>
       <c r="H21" t="n">
-        <v>94.58247547194327</v>
+        <v>94.58247547194303</v>
       </c>
       <c r="I21" t="n">
-        <v>75.57518387348121</v>
+        <v>75.57518387348124</v>
       </c>
       <c r="J21" t="n">
         <v>169.2524533640985</v>
@@ -5835,7 +5835,7 @@
         <v>407.5166523444456</v>
       </c>
       <c r="L21" t="n">
-        <v>774.2148126571108</v>
+        <v>774.2148126571109</v>
       </c>
       <c r="M21" t="n">
         <v>1221.491137879427</v>
@@ -5847,7 +5847,7 @@
         <v>2105.975460851936</v>
       </c>
       <c r="P21" t="n">
-        <v>2416.475052328038</v>
+        <v>2416.475052328039</v>
       </c>
       <c r="Q21" t="n">
         <v>2574.116609974639</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.0218581779975</v>
+        <v>632.021858177998</v>
       </c>
       <c r="C22" t="n">
-        <v>530.0363737793917</v>
+        <v>530.0363737793921</v>
       </c>
       <c r="D22" t="n">
-        <v>446.8704328963571</v>
+        <v>446.8704328963574</v>
       </c>
       <c r="E22" t="n">
-        <v>365.9080378432651</v>
+        <v>365.9080378432653</v>
       </c>
       <c r="F22" t="n">
-        <v>285.9687888746558</v>
+        <v>285.968788874656</v>
       </c>
       <c r="G22" t="n">
-        <v>185.2166507786759</v>
+        <v>185.216650778676</v>
       </c>
       <c r="H22" t="n">
-        <v>105.9501625258348</v>
+        <v>105.9501625258349</v>
       </c>
       <c r="I22" t="n">
-        <v>75.57518387348121</v>
+        <v>75.57518387348124</v>
       </c>
       <c r="J22" t="n">
-        <v>180.7238490400248</v>
+        <v>120.6978163204168</v>
       </c>
       <c r="K22" t="n">
-        <v>384.7110319889011</v>
+        <v>324.6849992692931</v>
       </c>
       <c r="L22" t="n">
-        <v>701.2708304373972</v>
+        <v>641.2447977177892</v>
       </c>
       <c r="M22" t="n">
-        <v>1045.427876036946</v>
+        <v>1045.427876036948</v>
       </c>
       <c r="N22" t="n">
-        <v>1386.836252742811</v>
+        <v>1386.836252742812</v>
       </c>
       <c r="O22" t="n">
-        <v>1686.165851663224</v>
+        <v>1686.165851663226</v>
       </c>
       <c r="P22" t="n">
-        <v>1918.773352096883</v>
+        <v>1918.773352096885</v>
       </c>
       <c r="Q22" t="n">
-        <v>1996.383648249398</v>
+        <v>1996.383648249399</v>
       </c>
       <c r="R22" t="n">
-        <v>1973.503889536227</v>
+        <v>1973.503889536228</v>
       </c>
       <c r="S22" t="n">
-        <v>1848.768703892355</v>
+        <v>1848.768703892356</v>
       </c>
       <c r="T22" t="n">
-        <v>1693.952786991182</v>
+        <v>1693.952786991183</v>
       </c>
       <c r="U22" t="n">
-        <v>1471.800618646126</v>
+        <v>1471.800618646128</v>
       </c>
       <c r="V22" t="n">
-        <v>1284.066828969541</v>
+        <v>1284.066828969542</v>
       </c>
       <c r="W22" t="n">
-        <v>1061.600357461881</v>
+        <v>1061.600357461882</v>
       </c>
       <c r="X22" t="n">
-        <v>900.5615050931651</v>
+        <v>900.5615050931656</v>
       </c>
       <c r="Y22" t="n">
-        <v>746.7196244789361</v>
+        <v>746.7196244789366</v>
       </c>
     </row>
     <row r="23">
@@ -5972,61 +5972,61 @@
         <v>1317.202597690365</v>
       </c>
       <c r="E23" t="n">
-        <v>998.365043621422</v>
+        <v>998.3650436214225</v>
       </c>
       <c r="F23" t="n">
-        <v>654.3298373611156</v>
+        <v>654.329837361116</v>
       </c>
       <c r="G23" t="n">
-        <v>306.2080857354129</v>
+        <v>306.208085735413</v>
       </c>
       <c r="H23" t="n">
-        <v>75.57518387348121</v>
+        <v>75.57518387348124</v>
       </c>
       <c r="I23" t="n">
-        <v>75.57518387348121</v>
+        <v>75.57518387348124</v>
       </c>
       <c r="J23" t="n">
-        <v>431.8599638528596</v>
+        <v>264.4543148325066</v>
       </c>
       <c r="K23" t="n">
-        <v>765.679337542706</v>
+        <v>598.273688522353</v>
       </c>
       <c r="L23" t="n">
-        <v>1216.713550791115</v>
+        <v>1049.307901770762</v>
       </c>
       <c r="M23" t="n">
-        <v>1750.245455463039</v>
+        <v>1582.839806442686</v>
       </c>
       <c r="N23" t="n">
-        <v>2297.024272521821</v>
+        <v>2363.517087371757</v>
       </c>
       <c r="O23" t="n">
-        <v>2799.996743401158</v>
+        <v>2866.489558251094</v>
       </c>
       <c r="P23" t="n">
-        <v>3471.455765361576</v>
+        <v>3261.263924608271</v>
       </c>
       <c r="Q23" t="n">
-        <v>3719.742127117258</v>
+        <v>3719.742127117259</v>
       </c>
       <c r="R23" t="n">
-        <v>3778.75919367406</v>
+        <v>3778.759193674062</v>
       </c>
       <c r="S23" t="n">
-        <v>3735.419223730457</v>
+        <v>3735.419223730458</v>
       </c>
       <c r="T23" t="n">
-        <v>3596.39217464398</v>
+        <v>3596.392174643981</v>
       </c>
       <c r="U23" t="n">
-        <v>3409.812396447118</v>
+        <v>3409.812396447119</v>
       </c>
       <c r="V23" t="n">
-        <v>3145.700207632848</v>
+        <v>3145.700207632849</v>
       </c>
       <c r="W23" t="n">
-        <v>2859.882250892035</v>
+        <v>2859.882250892036</v>
       </c>
       <c r="X23" t="n">
         <v>2553.367191160257</v>
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>950.6069219224065</v>
+        <v>950.6069219224062</v>
       </c>
       <c r="C24" t="n">
-        <v>776.1538926412795</v>
+        <v>776.1538926412792</v>
       </c>
       <c r="D24" t="n">
-        <v>627.2194829800283</v>
+        <v>627.2194829800279</v>
       </c>
       <c r="E24" t="n">
-        <v>467.9820279745727</v>
+        <v>467.9820279745724</v>
       </c>
       <c r="F24" t="n">
-        <v>321.4474700014576</v>
+        <v>321.4474700014574</v>
       </c>
       <c r="G24" t="n">
-        <v>185.0843698340757</v>
+        <v>185.0843698340755</v>
       </c>
       <c r="H24" t="n">
-        <v>94.58247547194327</v>
+        <v>94.58247547194303</v>
       </c>
       <c r="I24" t="n">
-        <v>75.57518387348121</v>
+        <v>75.57518387348124</v>
       </c>
       <c r="J24" t="n">
         <v>169.2524533640985</v>
@@ -6072,7 +6072,7 @@
         <v>407.5166523444456</v>
       </c>
       <c r="L24" t="n">
-        <v>774.2148126571108</v>
+        <v>774.2148126571109</v>
       </c>
       <c r="M24" t="n">
         <v>1221.491137879427</v>
@@ -6084,10 +6084,10 @@
         <v>2105.975460851936</v>
       </c>
       <c r="P24" t="n">
-        <v>2416.475052328038</v>
+        <v>2416.475052328039</v>
       </c>
       <c r="Q24" t="n">
-        <v>2574.116609974638</v>
+        <v>2574.116609974639</v>
       </c>
       <c r="R24" t="n">
         <v>2573.972256567154</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>632.0218581779975</v>
+        <v>632.021858177998</v>
       </c>
       <c r="C25" t="n">
-        <v>530.0363737793917</v>
+        <v>530.0363737793921</v>
       </c>
       <c r="D25" t="n">
-        <v>446.8704328963571</v>
+        <v>446.8704328963574</v>
       </c>
       <c r="E25" t="n">
-        <v>365.9080378432651</v>
+        <v>365.9080378432653</v>
       </c>
       <c r="F25" t="n">
-        <v>285.9687888746558</v>
+        <v>285.968788874656</v>
       </c>
       <c r="G25" t="n">
-        <v>185.2166507786759</v>
+        <v>185.216650778676</v>
       </c>
       <c r="H25" t="n">
-        <v>105.9501625258348</v>
+        <v>105.9501625258349</v>
       </c>
       <c r="I25" t="n">
-        <v>75.57518387348121</v>
+        <v>75.57518387348124</v>
       </c>
       <c r="J25" t="n">
-        <v>120.6978163204167</v>
+        <v>120.6978163204168</v>
       </c>
       <c r="K25" t="n">
-        <v>324.684999269293</v>
+        <v>324.6849992692931</v>
       </c>
       <c r="L25" t="n">
-        <v>641.2447977177892</v>
+        <v>701.2708304373986</v>
       </c>
       <c r="M25" t="n">
-        <v>1045.427876036946</v>
+        <v>1045.427876036948</v>
       </c>
       <c r="N25" t="n">
-        <v>1386.836252742811</v>
+        <v>1386.836252742812</v>
       </c>
       <c r="O25" t="n">
-        <v>1686.165851663224</v>
+        <v>1686.165851663226</v>
       </c>
       <c r="P25" t="n">
-        <v>1918.773352096883</v>
+        <v>1918.773352096885</v>
       </c>
       <c r="Q25" t="n">
-        <v>1996.383648249398</v>
+        <v>1996.383648249399</v>
       </c>
       <c r="R25" t="n">
-        <v>1973.503889536227</v>
+        <v>1973.503889536228</v>
       </c>
       <c r="S25" t="n">
-        <v>1848.768703892355</v>
+        <v>1848.768703892356</v>
       </c>
       <c r="T25" t="n">
-        <v>1693.952786991182</v>
+        <v>1693.952786991183</v>
       </c>
       <c r="U25" t="n">
-        <v>1471.800618646126</v>
+        <v>1471.800618646128</v>
       </c>
       <c r="V25" t="n">
-        <v>1284.066828969541</v>
+        <v>1284.066828969542</v>
       </c>
       <c r="W25" t="n">
-        <v>1061.600357461881</v>
+        <v>1061.600357461882</v>
       </c>
       <c r="X25" t="n">
-        <v>900.5615050931651</v>
+        <v>900.5615050931656</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.7196244789361</v>
+        <v>746.7196244789366</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2067.381871868335</v>
+        <v>2067.381871868337</v>
       </c>
       <c r="C26" t="n">
-        <v>1740.416253688455</v>
+        <v>1740.416253688456</v>
       </c>
       <c r="D26" t="n">
-        <v>1424.147453842235</v>
+        <v>1424.147453842237</v>
       </c>
       <c r="E26" t="n">
-        <v>1080.356100004522</v>
+        <v>1080.356100004524</v>
       </c>
       <c r="F26" t="n">
-        <v>711.3670939754461</v>
+        <v>711.3670939754481</v>
       </c>
       <c r="G26" t="n">
         <v>338.2915425809741</v>
       </c>
       <c r="H26" t="n">
-        <v>82.7048409502726</v>
+        <v>82.70484095027263</v>
       </c>
       <c r="I26" t="n">
-        <v>82.7048409502726</v>
+        <v>82.70484095027263</v>
       </c>
       <c r="J26" t="n">
-        <v>438.989620929651</v>
+        <v>271.583971909298</v>
       </c>
       <c r="K26" t="n">
-        <v>888.7691931533584</v>
+        <v>605.4033455991444</v>
       </c>
       <c r="L26" t="n">
-        <v>1339.803406401767</v>
+        <v>1056.437558847553</v>
       </c>
       <c r="M26" t="n">
-        <v>2318.353709231596</v>
+        <v>1589.969463519477</v>
       </c>
       <c r="N26" t="n">
-        <v>2865.132526290377</v>
+        <v>2136.748280578259</v>
       </c>
       <c r="O26" t="n">
-        <v>3368.104997169714</v>
+        <v>2904.391691000895</v>
       </c>
       <c r="P26" t="n">
-        <v>3762.879363526892</v>
+        <v>3617.746778447841</v>
       </c>
       <c r="Q26" t="n">
-        <v>4011.165725282574</v>
+        <v>4076.224980956829</v>
       </c>
       <c r="R26" t="n">
-        <v>4135.24204751363</v>
+        <v>4135.242047513631</v>
       </c>
       <c r="S26" t="n">
-        <v>4066.948277801256</v>
+        <v>4066.948277801257</v>
       </c>
       <c r="T26" t="n">
-        <v>3902.967428946009</v>
+        <v>3902.967428946011</v>
       </c>
       <c r="U26" t="n">
-        <v>3691.433850980377</v>
+        <v>3691.433850980378</v>
       </c>
       <c r="V26" t="n">
-        <v>3402.367862397337</v>
+        <v>3402.367862397339</v>
       </c>
       <c r="W26" t="n">
-        <v>3091.596105887755</v>
+        <v>3091.596105887756</v>
       </c>
       <c r="X26" t="n">
-        <v>2760.127246387206</v>
+        <v>2760.127246387208</v>
       </c>
       <c r="Y26" t="n">
-        <v>2411.984813171925</v>
+        <v>2411.984813171927</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>957.7365789991978</v>
+        <v>957.736578999197</v>
       </c>
       <c r="C27" t="n">
-        <v>783.2835497180708</v>
+        <v>783.28354971807</v>
       </c>
       <c r="D27" t="n">
-        <v>634.3491400568196</v>
+        <v>634.3491400568188</v>
       </c>
       <c r="E27" t="n">
-        <v>475.1116850513641</v>
+        <v>475.1116850513633</v>
       </c>
       <c r="F27" t="n">
-        <v>328.5771270782491</v>
+        <v>328.5771270782483</v>
       </c>
       <c r="G27" t="n">
-        <v>192.2140269108672</v>
+        <v>192.2140269108664</v>
       </c>
       <c r="H27" t="n">
-        <v>101.7121325487347</v>
+        <v>101.7121325487339</v>
       </c>
       <c r="I27" t="n">
-        <v>82.7048409502726</v>
+        <v>82.70484095027263</v>
       </c>
       <c r="J27" t="n">
         <v>176.3821104408899</v>
@@ -6327,28 +6327,28 @@
         <v>2581.24626705143</v>
       </c>
       <c r="R27" t="n">
-        <v>2581.101913643946</v>
+        <v>2581.101913643945</v>
       </c>
       <c r="S27" t="n">
-        <v>2451.664027137426</v>
+        <v>2451.664027137425</v>
       </c>
       <c r="T27" t="n">
-        <v>2259.021026815281</v>
+        <v>2259.02102681528</v>
       </c>
       <c r="U27" t="n">
-        <v>2030.953179949697</v>
+        <v>2030.953179949696</v>
       </c>
       <c r="V27" t="n">
-        <v>1795.801071717954</v>
+        <v>1795.801071717953</v>
       </c>
       <c r="W27" t="n">
         <v>1541.563714989752</v>
       </c>
       <c r="X27" t="n">
-        <v>1333.71221478422</v>
+        <v>1333.712214784219</v>
       </c>
       <c r="Y27" t="n">
-        <v>1125.951916019266</v>
+        <v>1125.951916019265</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>813.8281136361774</v>
+        <v>683.8305684178259</v>
       </c>
       <c r="C28" t="n">
-        <v>686.8888294688018</v>
+        <v>556.8912842504503</v>
       </c>
       <c r="D28" t="n">
-        <v>578.7690888169974</v>
+        <v>453.0631509522478</v>
       </c>
       <c r="E28" t="n">
-        <v>472.8528939951356</v>
+        <v>347.1469561303859</v>
       </c>
       <c r="F28" t="n">
-        <v>367.9598452577566</v>
+        <v>242.2539073930069</v>
       </c>
       <c r="G28" t="n">
-        <v>242.2539073930068</v>
+        <v>242.2539073930069</v>
       </c>
       <c r="H28" t="n">
         <v>138.033619371396</v>
       </c>
       <c r="I28" t="n">
-        <v>82.7048409502726</v>
+        <v>82.70484095027263</v>
       </c>
       <c r="J28" t="n">
         <v>168.9886338724049</v>
@@ -6388,7 +6388,7 @@
         <v>414.1369772964779</v>
       </c>
       <c r="L28" t="n">
-        <v>771.8579362201708</v>
+        <v>771.8579362201707</v>
       </c>
       <c r="M28" t="n">
         <v>1157.176142294916</v>
@@ -6406,28 +6406,28 @@
         <v>2272.776556408155</v>
       </c>
       <c r="R28" t="n">
-        <v>2272.776556408155</v>
+        <v>2224.942997926215</v>
       </c>
       <c r="S28" t="n">
-        <v>2123.087570995513</v>
+        <v>2075.254012513572</v>
       </c>
       <c r="T28" t="n">
-        <v>1943.31785432557</v>
+        <v>1895.484295843629</v>
       </c>
       <c r="U28" t="n">
-        <v>1696.211886211745</v>
+        <v>1648.378327729804</v>
       </c>
       <c r="V28" t="n">
-        <v>1483.524296766389</v>
+        <v>1435.690738284449</v>
       </c>
       <c r="W28" t="n">
-        <v>1236.10402548996</v>
+        <v>1188.270467008019</v>
       </c>
       <c r="X28" t="n">
-        <v>1050.111373352474</v>
+        <v>1002.277814870533</v>
       </c>
       <c r="Y28" t="n">
-        <v>953.4796797058857</v>
+        <v>823.4821344875344</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2067.381871868335</v>
+        <v>2067.381871868336</v>
       </c>
       <c r="C29" t="n">
-        <v>1740.416253688455</v>
+        <v>1740.416253688456</v>
       </c>
       <c r="D29" t="n">
-        <v>1424.147453842235</v>
+        <v>1424.147453842236</v>
       </c>
       <c r="E29" t="n">
-        <v>1080.356100004522</v>
+        <v>1080.356100004523</v>
       </c>
       <c r="F29" t="n">
-        <v>711.3670939754461</v>
+        <v>711.3670939754466</v>
       </c>
       <c r="G29" t="n">
-        <v>338.2915425809741</v>
+        <v>338.2915425809743</v>
       </c>
       <c r="H29" t="n">
-        <v>82.7048409502726</v>
+        <v>82.70484095027263</v>
       </c>
       <c r="I29" t="n">
-        <v>82.7048409502726</v>
+        <v>82.70484095027263</v>
       </c>
       <c r="J29" t="n">
         <v>438.989620929651</v>
       </c>
       <c r="K29" t="n">
-        <v>772.8089946194973</v>
+        <v>772.8089946194974</v>
       </c>
       <c r="L29" t="n">
         <v>1223.843207867906</v>
       </c>
       <c r="M29" t="n">
-        <v>2202.393510697734</v>
+        <v>1999.772988141829</v>
       </c>
       <c r="N29" t="n">
-        <v>2749.172327756516</v>
+        <v>2546.551805200611</v>
       </c>
       <c r="O29" t="n">
-        <v>3252.144798635853</v>
+        <v>3049.524276079948</v>
       </c>
       <c r="P29" t="n">
-        <v>3646.919164993031</v>
+        <v>3762.879363526894</v>
       </c>
       <c r="Q29" t="n">
-        <v>4011.165725282574</v>
+        <v>4011.165725282576</v>
       </c>
       <c r="R29" t="n">
-        <v>4135.24204751363</v>
+        <v>4135.242047513631</v>
       </c>
       <c r="S29" t="n">
-        <v>4066.948277801256</v>
+        <v>4066.948277801258</v>
       </c>
       <c r="T29" t="n">
-        <v>3902.967428946009</v>
+        <v>3902.967428946011</v>
       </c>
       <c r="U29" t="n">
-        <v>3691.433850980377</v>
+        <v>3691.433850980379</v>
       </c>
       <c r="V29" t="n">
-        <v>3402.367862397337</v>
+        <v>3402.367862397339</v>
       </c>
       <c r="W29" t="n">
-        <v>3091.596105887755</v>
+        <v>3091.596105887756</v>
       </c>
       <c r="X29" t="n">
-        <v>2760.127246387206</v>
+        <v>2760.127246387207</v>
       </c>
       <c r="Y29" t="n">
-        <v>2411.984813171925</v>
+        <v>2411.984813171927</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>101.7121325487347</v>
       </c>
       <c r="I30" t="n">
-        <v>82.7048409502726</v>
+        <v>82.70484095027263</v>
       </c>
       <c r="J30" t="n">
         <v>176.3821104408899</v>
@@ -6546,22 +6546,22 @@
         <v>414.646309421237</v>
       </c>
       <c r="L30" t="n">
-        <v>781.3444697339023</v>
+        <v>781.344469733903</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.620794956218</v>
+        <v>1228.620794956219</v>
       </c>
       <c r="N30" t="n">
         <v>1702.143838510673</v>
       </c>
       <c r="O30" t="n">
-        <v>2113.105117928727</v>
+        <v>2113.105117928728</v>
       </c>
       <c r="P30" t="n">
-        <v>2423.60470940483</v>
+        <v>2423.604709404831</v>
       </c>
       <c r="Q30" t="n">
-        <v>2581.24626705143</v>
+        <v>2581.246267051431</v>
       </c>
       <c r="R30" t="n">
         <v>2581.101913643946</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>683.830568417825</v>
+        <v>683.8305684178233</v>
       </c>
       <c r="C31" t="n">
-        <v>631.5600510476788</v>
+        <v>556.8912842504475</v>
       </c>
       <c r="D31" t="n">
-        <v>523.4403103958743</v>
+        <v>448.7715435986429</v>
       </c>
       <c r="E31" t="n">
-        <v>417.5241155740125</v>
+        <v>342.8553487767809</v>
       </c>
       <c r="F31" t="n">
-        <v>312.6310668366334</v>
+        <v>342.8553487767809</v>
       </c>
       <c r="G31" t="n">
-        <v>186.9251289718836</v>
+        <v>217.149410912031</v>
       </c>
       <c r="H31" t="n">
-        <v>82.7048409502726</v>
+        <v>112.9291228904199</v>
       </c>
       <c r="I31" t="n">
-        <v>82.7048409502726</v>
+        <v>82.70484095027263</v>
       </c>
       <c r="J31" t="n">
-        <v>168.9886338724048</v>
+        <v>168.9886338724047</v>
       </c>
       <c r="K31" t="n">
-        <v>414.1369772964778</v>
+        <v>414.1369772964775</v>
       </c>
       <c r="L31" t="n">
-        <v>771.8579362201706</v>
+        <v>771.8579362201701</v>
       </c>
       <c r="M31" t="n">
         <v>1157.176142294916</v>
@@ -6640,10 +6640,10 @@
         <v>2154.005099780443</v>
       </c>
       <c r="Q31" t="n">
-        <v>2272.776556408155</v>
+        <v>2272.776556408154</v>
       </c>
       <c r="R31" t="n">
-        <v>2224.942997926214</v>
+        <v>2224.942997926213</v>
       </c>
       <c r="S31" t="n">
         <v>2075.254012513571</v>
@@ -6652,19 +6652,19 @@
         <v>1895.484295843628</v>
       </c>
       <c r="U31" t="n">
-        <v>1648.378327729803</v>
+        <v>1648.378327729802</v>
       </c>
       <c r="V31" t="n">
-        <v>1435.690738284448</v>
+        <v>1435.690738284447</v>
       </c>
       <c r="W31" t="n">
-        <v>1188.270467008018</v>
+        <v>1188.270467008017</v>
       </c>
       <c r="X31" t="n">
-        <v>1002.277814870532</v>
+        <v>1002.277814870531</v>
       </c>
       <c r="Y31" t="n">
-        <v>823.4821344875335</v>
+        <v>823.4821344875319</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2055.280031362923</v>
+        <v>2055.280031362925</v>
       </c>
       <c r="C32" t="n">
-        <v>1730.239705990721</v>
+        <v>1730.239705990723</v>
       </c>
       <c r="D32" t="n">
-        <v>1415.896198952181</v>
+        <v>1415.896198952183</v>
       </c>
       <c r="E32" t="n">
-        <v>1074.030137922148</v>
+        <v>1074.030137922149</v>
       </c>
       <c r="F32" t="n">
-        <v>706.9664247007504</v>
+        <v>706.9664247007522</v>
       </c>
       <c r="G32" t="n">
         <v>335.816166113958</v>
       </c>
       <c r="H32" t="n">
-        <v>82.15475729093566</v>
+        <v>82.15475729093571</v>
       </c>
       <c r="I32" t="n">
-        <v>82.15475729093566</v>
+        <v>82.15475729093571</v>
       </c>
       <c r="J32" t="n">
         <v>438.4395372703141</v>
       </c>
       <c r="K32" t="n">
-        <v>772.2589109601606</v>
+        <v>772.2589109601605</v>
       </c>
       <c r="L32" t="n">
-        <v>1223.293124208569</v>
+        <v>1636.777726613515</v>
       </c>
       <c r="M32" t="n">
-        <v>1756.825028880494</v>
+        <v>2170.309631285439</v>
       </c>
       <c r="N32" t="n">
-        <v>2308.855781480458</v>
+        <v>2717.088448344221</v>
       </c>
       <c r="O32" t="n">
-        <v>2811.828252359795</v>
+        <v>3220.060919223558</v>
       </c>
       <c r="P32" t="n">
-        <v>3525.18333980674</v>
+        <v>3800.4344362343</v>
       </c>
       <c r="Q32" t="n">
-        <v>3983.661542315728</v>
+        <v>4048.720797989983</v>
       </c>
       <c r="R32" t="n">
-        <v>4107.737864546783</v>
+        <v>4107.737864546785</v>
       </c>
       <c r="S32" t="n">
-        <v>4041.369387642089</v>
+        <v>4041.369387642091</v>
       </c>
       <c r="T32" t="n">
-        <v>3879.313831594522</v>
+        <v>3879.313831594523</v>
       </c>
       <c r="U32" t="n">
-        <v>3669.705546436569</v>
+        <v>3669.70554643657</v>
       </c>
       <c r="V32" t="n">
-        <v>3382.564850661209</v>
+        <v>3382.56485066121</v>
       </c>
       <c r="W32" t="n">
-        <v>3073.718386959305</v>
+        <v>3073.718386959306</v>
       </c>
       <c r="X32" t="n">
-        <v>2744.174820266436</v>
+        <v>2744.174820266437</v>
       </c>
       <c r="Y32" t="n">
-        <v>2397.957679858834</v>
+        <v>2397.957679858836</v>
       </c>
     </row>
     <row r="33">
@@ -6753,58 +6753,58 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>957.1864953398608</v>
+        <v>957.1864953398606</v>
       </c>
       <c r="C33" t="n">
-        <v>782.7334660587338</v>
+        <v>782.7334660587336</v>
       </c>
       <c r="D33" t="n">
-        <v>633.7990563974827</v>
+        <v>633.7990563974823</v>
       </c>
       <c r="E33" t="n">
-        <v>474.5616013920271</v>
+        <v>474.5616013920268</v>
       </c>
       <c r="F33" t="n">
-        <v>328.0270434189122</v>
+        <v>328.0270434189118</v>
       </c>
       <c r="G33" t="n">
-        <v>191.6639432515302</v>
+        <v>191.6639432515299</v>
       </c>
       <c r="H33" t="n">
-        <v>101.1620488893977</v>
+        <v>101.1620488893974</v>
       </c>
       <c r="I33" t="n">
-        <v>82.15475729093566</v>
+        <v>82.15475729093571</v>
       </c>
       <c r="J33" t="n">
-        <v>175.8320267815532</v>
+        <v>175.832026781553</v>
       </c>
       <c r="K33" t="n">
-        <v>414.0962257619003</v>
+        <v>414.0962257619001</v>
       </c>
       <c r="L33" t="n">
-        <v>780.7943860745658</v>
+        <v>780.7943860745654</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.070711296882</v>
+        <v>1228.070711296881</v>
       </c>
       <c r="N33" t="n">
         <v>1701.593754851336</v>
       </c>
       <c r="O33" t="n">
-        <v>2112.555034269391</v>
+        <v>2112.55503426939</v>
       </c>
       <c r="P33" t="n">
-        <v>2423.054625745494</v>
+        <v>2423.054625745493</v>
       </c>
       <c r="Q33" t="n">
-        <v>2580.696183392094</v>
+        <v>2580.696183392093</v>
       </c>
       <c r="R33" t="n">
         <v>2580.551829984609</v>
       </c>
       <c r="S33" t="n">
-        <v>2451.113943478089</v>
+        <v>2451.113943478088</v>
       </c>
       <c r="T33" t="n">
         <v>2258.470943155944</v>
@@ -6816,7 +6816,7 @@
         <v>1795.250988058617</v>
       </c>
       <c r="W33" t="n">
-        <v>1541.013631330416</v>
+        <v>1541.013631330415</v>
       </c>
       <c r="X33" t="n">
         <v>1333.162131124883</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>715.7039558740528</v>
+        <v>715.703955874053</v>
       </c>
       <c r="C34" t="n">
-        <v>590.6899645143563</v>
+        <v>590.6899645143566</v>
       </c>
       <c r="D34" t="n">
-        <v>568.5925411192649</v>
+        <v>484.4955166702313</v>
       </c>
       <c r="E34" t="n">
-        <v>464.6016391050822</v>
+        <v>380.5046146560487</v>
       </c>
       <c r="F34" t="n">
-        <v>361.6338831753823</v>
+        <v>277.5368587263488</v>
       </c>
       <c r="G34" t="n">
-        <v>237.8532381183117</v>
+        <v>153.7562136692782</v>
       </c>
       <c r="H34" t="n">
         <v>135.5582429043799</v>
       </c>
       <c r="I34" t="n">
-        <v>82.15475729093566</v>
+        <v>82.15475729093571</v>
       </c>
       <c r="J34" t="n">
         <v>170.3255296938743</v>
@@ -6901,7 +6901,7 @@
         <v>1030.300616711402</v>
       </c>
       <c r="Y34" t="n">
-        <v>853.4302291360821</v>
+        <v>853.4302291360823</v>
       </c>
     </row>
     <row r="35">
@@ -6914,25 +6914,25 @@
         <v>1891.705162705306</v>
       </c>
       <c r="C35" t="n">
-        <v>1592.688111892271</v>
+        <v>1592.688111892272</v>
       </c>
       <c r="D35" t="n">
-        <v>1304.367879412897</v>
+        <v>1304.367879412898</v>
       </c>
       <c r="E35" t="n">
-        <v>988.5250929420296</v>
+        <v>988.5250929420304</v>
       </c>
       <c r="F35" t="n">
-        <v>647.4846542797989</v>
+        <v>647.4846542797995</v>
       </c>
       <c r="G35" t="n">
-        <v>302.3576702521729</v>
+        <v>302.3576702521727</v>
       </c>
       <c r="H35" t="n">
-        <v>74.71953598831674</v>
+        <v>74.71953598831672</v>
       </c>
       <c r="I35" t="n">
-        <v>74.71953598831674</v>
+        <v>74.71953598831672</v>
       </c>
       <c r="J35" t="n">
         <v>263.5986669473421</v>
@@ -6950,19 +6950,19 @@
         <v>2128.762975616303</v>
       </c>
       <c r="O35" t="n">
-        <v>2631.73544649564</v>
+        <v>3008.727625945758</v>
       </c>
       <c r="P35" t="n">
-        <v>3345.090533942586</v>
+        <v>3428.673371103351</v>
       </c>
       <c r="Q35" t="n">
-        <v>3611.900477184782</v>
+        <v>3676.959732859033</v>
       </c>
       <c r="R35" t="n">
-        <v>3735.976799415837</v>
+        <v>3735.976799415836</v>
       </c>
       <c r="S35" t="n">
-        <v>3695.631597070309</v>
+        <v>3695.631597070308</v>
       </c>
       <c r="T35" t="n">
         <v>3559.599315581907</v>
@@ -6971,10 +6971,10 @@
         <v>3376.01430498312</v>
       </c>
       <c r="V35" t="n">
-        <v>3114.896883766926</v>
+        <v>3114.896883766927</v>
       </c>
       <c r="W35" t="n">
-        <v>2832.073694624189</v>
+        <v>2832.07369462419</v>
       </c>
       <c r="X35" t="n">
         <v>2528.553402490486</v>
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>949.7512740372421</v>
+        <v>949.751274037241</v>
       </c>
       <c r="C36" t="n">
-        <v>775.2982447561151</v>
+        <v>775.2982447561141</v>
       </c>
       <c r="D36" t="n">
-        <v>626.3638350948638</v>
+        <v>626.3638350948628</v>
       </c>
       <c r="E36" t="n">
-        <v>467.1263800894083</v>
+        <v>467.1263800894073</v>
       </c>
       <c r="F36" t="n">
-        <v>320.5918221162932</v>
+        <v>320.5918221162923</v>
       </c>
       <c r="G36" t="n">
-        <v>184.2287219489113</v>
+        <v>184.2287219489104</v>
       </c>
       <c r="H36" t="n">
-        <v>93.7268275867788</v>
+        <v>93.7268275867779</v>
       </c>
       <c r="I36" t="n">
-        <v>74.71953598831674</v>
+        <v>74.71953598831672</v>
       </c>
       <c r="J36" t="n">
         <v>168.396805478934</v>
@@ -7038,28 +7038,28 @@
         <v>2573.260962089474</v>
       </c>
       <c r="R36" t="n">
-        <v>2573.11660868199</v>
+        <v>2573.116608681989</v>
       </c>
       <c r="S36" t="n">
-        <v>2443.67872217547</v>
+        <v>2443.678722175469</v>
       </c>
       <c r="T36" t="n">
         <v>2251.035721853325</v>
       </c>
       <c r="U36" t="n">
-        <v>2022.967874987741</v>
+        <v>2022.96787498774</v>
       </c>
       <c r="V36" t="n">
-        <v>1787.815766755998</v>
+        <v>1787.815766755997</v>
       </c>
       <c r="W36" t="n">
-        <v>1533.578410027797</v>
+        <v>1533.578410027796</v>
       </c>
       <c r="X36" t="n">
-        <v>1325.726909822264</v>
+        <v>1325.726909822263</v>
       </c>
       <c r="Y36" t="n">
-        <v>1117.96661105731</v>
+        <v>1117.966611057309</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>610.2028371063035</v>
+        <v>610.2028371063031</v>
       </c>
       <c r="C37" t="n">
-        <v>511.2121203057733</v>
+        <v>511.2121203057731</v>
       </c>
       <c r="D37" t="n">
-        <v>431.0409470208144</v>
+        <v>431.0409470208141</v>
       </c>
       <c r="E37" t="n">
-        <v>353.073319565798</v>
+        <v>353.0733195657978</v>
       </c>
       <c r="F37" t="n">
-        <v>276.1288381952644</v>
+        <v>276.1288381952643</v>
       </c>
       <c r="G37" t="n">
-        <v>178.3714676973601</v>
+        <v>178.37146769736</v>
       </c>
       <c r="H37" t="n">
-        <v>102.0997470425947</v>
+        <v>102.0997470425946</v>
       </c>
       <c r="I37" t="n">
-        <v>74.71953598831674</v>
+        <v>74.71953598831672</v>
       </c>
       <c r="J37" t="n">
         <v>119.8421684352523</v>
@@ -7105,25 +7105,25 @@
         <v>984.5461954321737</v>
       </c>
       <c r="N37" t="n">
-        <v>1325.954572138038</v>
+        <v>1338.064323288435</v>
       </c>
       <c r="O37" t="n">
-        <v>1625.284171058452</v>
+        <v>1637.393922208849</v>
       </c>
       <c r="P37" t="n">
-        <v>1870.001422642509</v>
+        <v>1870.001422642508</v>
       </c>
       <c r="Q37" t="n">
         <v>1947.611718795023</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.726727679928</v>
+        <v>1927.726727679927</v>
       </c>
       <c r="S37" t="n">
         <v>1805.986309634131</v>
       </c>
       <c r="T37" t="n">
-        <v>1654.165160331034</v>
+        <v>1654.165160331033</v>
       </c>
       <c r="U37" t="n">
         <v>1435.007759584054</v>
@@ -7135,10 +7135,10 @@
         <v>1030.79703359596</v>
       </c>
       <c r="X37" t="n">
-        <v>872.7529488253198</v>
+        <v>872.7529488253194</v>
       </c>
       <c r="Y37" t="n">
-        <v>721.9058358091664</v>
+        <v>721.9058358091661</v>
       </c>
     </row>
     <row r="38">
@@ -7148,70 +7148,70 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1891.705162705307</v>
+        <v>1891.705162705306</v>
       </c>
       <c r="C38" t="n">
-        <v>1592.688111892272</v>
+        <v>1592.688111892271</v>
       </c>
       <c r="D38" t="n">
-        <v>1304.367879412898</v>
+        <v>1304.367879412897</v>
       </c>
       <c r="E38" t="n">
-        <v>988.5250929420304</v>
+        <v>988.5250929420299</v>
       </c>
       <c r="F38" t="n">
-        <v>647.4846542798</v>
+        <v>647.4846542797991</v>
       </c>
       <c r="G38" t="n">
         <v>302.3576702521727</v>
       </c>
       <c r="H38" t="n">
-        <v>74.71953598831674</v>
+        <v>74.71953598831672</v>
       </c>
       <c r="I38" t="n">
-        <v>74.71953598831674</v>
+        <v>74.71953598831672</v>
       </c>
       <c r="J38" t="n">
-        <v>263.5986669473421</v>
+        <v>263.5986669473422</v>
       </c>
       <c r="K38" t="n">
-        <v>597.4180406371885</v>
+        <v>597.4180406371886</v>
       </c>
       <c r="L38" t="n">
-        <v>1048.452253885597</v>
+        <v>1059.493458952634</v>
       </c>
       <c r="M38" t="n">
-        <v>1581.984158557521</v>
+        <v>1984.147716808054</v>
       </c>
       <c r="N38" t="n">
-        <v>2128.762975616303</v>
+        <v>2530.926533866836</v>
       </c>
       <c r="O38" t="n">
-        <v>2758.647908318616</v>
+        <v>3033.899004746173</v>
       </c>
       <c r="P38" t="n">
-        <v>3153.422274675794</v>
+        <v>3428.673371103351</v>
       </c>
       <c r="Q38" t="n">
-        <v>3611.900477184782</v>
+        <v>3676.959732859033</v>
       </c>
       <c r="R38" t="n">
-        <v>3735.976799415837</v>
+        <v>3735.976799415836</v>
       </c>
       <c r="S38" t="n">
-        <v>3695.631597070309</v>
+        <v>3695.631597070308</v>
       </c>
       <c r="T38" t="n">
-        <v>3559.599315581908</v>
+        <v>3559.599315581906</v>
       </c>
       <c r="U38" t="n">
-        <v>3376.014304983121</v>
+        <v>3376.01430498312</v>
       </c>
       <c r="V38" t="n">
-        <v>3114.896883766927</v>
+        <v>3114.896883766926</v>
       </c>
       <c r="W38" t="n">
-        <v>2832.07369462419</v>
+        <v>2832.073694624189</v>
       </c>
       <c r="X38" t="n">
         <v>2528.553402490486</v>
@@ -7227,52 +7227,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>949.7512740372421</v>
+        <v>949.7512740372417</v>
       </c>
       <c r="C39" t="n">
-        <v>775.2982447561151</v>
+        <v>775.2982447561147</v>
       </c>
       <c r="D39" t="n">
-        <v>626.3638350948638</v>
+        <v>626.3638350948636</v>
       </c>
       <c r="E39" t="n">
-        <v>467.1263800894083</v>
+        <v>467.126380089408</v>
       </c>
       <c r="F39" t="n">
-        <v>320.5918221162932</v>
+        <v>320.5918221162931</v>
       </c>
       <c r="G39" t="n">
-        <v>184.2287219489113</v>
+        <v>184.2287219489117</v>
       </c>
       <c r="H39" t="n">
-        <v>93.7268275867788</v>
+        <v>93.72682758677877</v>
       </c>
       <c r="I39" t="n">
-        <v>74.71953598831674</v>
+        <v>74.71953598831672</v>
       </c>
       <c r="J39" t="n">
-        <v>168.396805478934</v>
+        <v>168.3968054789339</v>
       </c>
       <c r="K39" t="n">
-        <v>406.6610044592811</v>
+        <v>406.6610044592812</v>
       </c>
       <c r="L39" t="n">
-        <v>773.3591647719463</v>
+        <v>773.3591647719466</v>
       </c>
       <c r="M39" t="n">
-        <v>1220.635489994262</v>
+        <v>1220.635489994263</v>
       </c>
       <c r="N39" t="n">
         <v>1694.158533548717</v>
       </c>
       <c r="O39" t="n">
-        <v>2105.119812966771</v>
+        <v>2105.119812966772</v>
       </c>
       <c r="P39" t="n">
-        <v>2415.619404442874</v>
+        <v>2415.619404442875</v>
       </c>
       <c r="Q39" t="n">
-        <v>2573.260962089474</v>
+        <v>2573.260962089475</v>
       </c>
       <c r="R39" t="n">
         <v>2573.11660868199</v>
@@ -7309,7 +7309,7 @@
         <v>610.2028371063031</v>
       </c>
       <c r="C40" t="n">
-        <v>511.212120305773</v>
+        <v>511.2121203057731</v>
       </c>
       <c r="D40" t="n">
         <v>431.0409470208141</v>
@@ -7318,7 +7318,7 @@
         <v>353.0733195657978</v>
       </c>
       <c r="F40" t="n">
-        <v>276.1288381952642</v>
+        <v>276.1288381952643</v>
       </c>
       <c r="G40" t="n">
         <v>178.37146769736</v>
@@ -7327,25 +7327,25 @@
         <v>102.0997470425946</v>
       </c>
       <c r="I40" t="n">
-        <v>74.71953598831674</v>
+        <v>74.71953598831672</v>
       </c>
       <c r="J40" t="n">
         <v>119.8421684352523</v>
       </c>
       <c r="K40" t="n">
-        <v>323.8293513841286</v>
+        <v>335.9391025345251</v>
       </c>
       <c r="L40" t="n">
-        <v>652.4989009830218</v>
+        <v>652.4989009830213</v>
       </c>
       <c r="M40" t="n">
-        <v>996.6559465825708</v>
+        <v>996.6559465825703</v>
       </c>
       <c r="N40" t="n">
         <v>1338.064323288435</v>
       </c>
       <c r="O40" t="n">
-        <v>1637.393922208849</v>
+        <v>1637.393922208848</v>
       </c>
       <c r="P40" t="n">
         <v>1870.001422642508</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1457.522709123157</v>
+        <v>1301.367519464211</v>
       </c>
       <c r="C41" t="n">
-        <v>1136.009825130819</v>
+        <v>979.8546354718726</v>
       </c>
       <c r="D41" t="n">
-        <v>1136.009825130819</v>
+        <v>669.0385698131954</v>
       </c>
       <c r="E41" t="n">
-        <v>797.6712054806478</v>
+        <v>669.0385698131954</v>
       </c>
       <c r="F41" t="n">
-        <v>434.1349336391136</v>
+        <v>669.0385698131954</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218342</v>
+        <v>301.4157526062652</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S41" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="T41" t="n">
-        <v>3104.236671416634</v>
+        <v>3104.236671416633</v>
       </c>
       <c r="U41" t="n">
-        <v>2898.155827638544</v>
+        <v>2898.155827638543</v>
       </c>
       <c r="V41" t="n">
-        <v>2614.542573243047</v>
+        <v>2614.542573243045</v>
       </c>
       <c r="W41" t="n">
-        <v>2465.37874057995</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="X41" t="n">
-        <v>2139.362615266944</v>
+        <v>1983.207425607998</v>
       </c>
       <c r="Y41" t="n">
-        <v>1796.672916239206</v>
+        <v>1640.517726580259</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7512,28 +7512,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052943</v>
       </c>
       <c r="C43" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254607</v>
       </c>
       <c r="D43" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611983</v>
       </c>
       <c r="E43" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F43" t="n">
-        <v>335.4089181770416</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G43" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H43" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K43" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L43" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M43" t="n">
         <v>1162.360316885667</v>
@@ -7588,16 +7588,16 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q43" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R43" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S43" t="n">
         <v>2112.720554588246</v>
       </c>
       <c r="T43" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U43" t="n">
         <v>1696.750338179563</v>
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1647.82180938454</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="C44" t="n">
-        <v>1446.825890789496</v>
+        <v>979.8546354718736</v>
       </c>
       <c r="D44" t="n">
-        <v>1136.009825130818</v>
+        <v>669.0385698131965</v>
       </c>
       <c r="E44" t="n">
-        <v>797.6712054806476</v>
+        <v>669.0385698131965</v>
       </c>
       <c r="F44" t="n">
         <v>434.1349336391135</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296684</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609169</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609169</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="T44" t="n">
-        <v>3167.077706941464</v>
+        <v>3104.236671416633</v>
       </c>
       <c r="U44" t="n">
-        <v>2960.996863163374</v>
+        <v>2898.155827638543</v>
       </c>
       <c r="V44" t="n">
-        <v>2960.996863163374</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="W44" t="n">
-        <v>2655.677840841333</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="X44" t="n">
-        <v>2329.661715528327</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y44" t="n">
-        <v>1986.972016500589</v>
+        <v>1640.51772658026</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7740,37 +7740,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
         <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>759.4662498052953</v>
+        <v>759.4662498052965</v>
       </c>
       <c r="C46" t="n">
-        <v>637.9796998254618</v>
+        <v>637.9796998254629</v>
       </c>
       <c r="D46" t="n">
-        <v>535.3126933611995</v>
+        <v>535.3126933611975</v>
       </c>
       <c r="E46" t="n">
-        <v>434.8492327268798</v>
+        <v>434.8492327268779</v>
       </c>
       <c r="F46" t="n">
-        <v>335.4089181770429</v>
+        <v>335.408918177041</v>
       </c>
       <c r="G46" t="n">
-        <v>215.1557144998353</v>
+        <v>215.1557144998334</v>
       </c>
       <c r="H46" t="n">
-        <v>116.3881606657664</v>
+        <v>116.3881606657646</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J46" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K46" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328088</v>
       </c>
       <c r="L46" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337117</v>
       </c>
       <c r="M46" t="n">
-        <v>1162.360316885667</v>
+        <v>1162.360316885668</v>
       </c>
       <c r="N46" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.274078843939</v>
       </c>
       <c r="O46" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016759</v>
       </c>
       <c r="P46" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q46" t="n">
         <v>2299.337630107746</v>
       </c>
       <c r="R46" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813348</v>
       </c>
       <c r="S46" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588248</v>
       </c>
       <c r="T46" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105847</v>
       </c>
       <c r="U46" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179564</v>
       </c>
       <c r="V46" t="n">
-        <v>1489.515482921749</v>
+        <v>1489.51548292175</v>
       </c>
       <c r="W46" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832863</v>
       </c>
       <c r="X46" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882919</v>
       </c>
       <c r="Y46" t="n">
-        <v>893.6650816874617</v>
+        <v>893.6650816874627</v>
       </c>
     </row>
   </sheetData>
@@ -8456,19 +8456,19 @@
         <v>226.965896786692</v>
       </c>
       <c r="L8" t="n">
-        <v>242.6424607116987</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>236.944458939016</v>
       </c>
       <c r="N8" t="n">
-        <v>236.0112893083342</v>
+        <v>236.2891093383024</v>
       </c>
       <c r="O8" t="n">
-        <v>236.9742571633982</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>238.109041496981</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8538,10 +8538,10 @@
         <v>145.4304255215856</v>
       </c>
       <c r="M9" t="n">
-        <v>148.7322596337616</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>138.2177578250447</v>
+        <v>137.9399377950766</v>
       </c>
       <c r="O9" t="n">
         <v>149.4722901861559</v>
@@ -8550,7 +8550,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>146.857819827733</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8617,13 +8617,13 @@
         <v>141.7607220229497</v>
       </c>
       <c r="M10" t="n">
-        <v>145.8018296893165</v>
+        <v>145.5240096593483</v>
       </c>
       <c r="N10" t="n">
         <v>134.5615902069446</v>
       </c>
       <c r="O10" t="n">
-        <v>145.0547641635861</v>
+        <v>145.3325841935542</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>42.35024886167668</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>42.35024886167426</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>42.35024886167764</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>42.35024886167568</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.448039571395043</v>
+        <v>170.5446547434701</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>2.059464140630013</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9413,13 +9413,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>1.448039571395043</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2.735589532676386e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9647,16 +9647,16 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>236.2610746164529</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>279.4794501042823</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>2.735589532676386e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>117.1315136705667</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>267.3443833770698</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>244.8463389919181</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10127,10 +10127,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>117.131513670567</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10352,25 +10352,25 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>5.30498539513269</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>187.4738895490547</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>3.304023721284466e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10598,16 +10598,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>25.42563515193456</v>
       </c>
       <c r="Q35" t="n">
-        <v>18.71068837021582</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>8.775202786637237e-13</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,25 +10826,25 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>11.15273239094626</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>395.0730840237323</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>128.1944058817937</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>26.68670091096629</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>333.4714581701747</v>
       </c>
     </row>
     <row r="12">
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348609</v>
+        <v>308.5257825007255</v>
       </c>
       <c r="H14" t="n">
-        <v>85.3246438983744</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958326</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>4.24869128006587</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>124.4488784861022</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.35522289712134</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>81.34234686904642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>73.92207912925718</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>103.8441182500054</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>54.77549063691219</v>
+        <v>24.85345151616654</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>83.25605420454346</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.25605420454312</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25631,19 +25631,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020903</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>247.6326277687279</v>
+        <v>15.07802795638699</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25688,7 +25688,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>154.593637762355</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25865,16 +25865,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>119.3117957433206</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>334.9552334536691</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>127.3463093107765</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958321</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25922,7 +25922,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>280.7771218515422</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>586289.5683119748</v>
+        <v>586289.568311975</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>586289.5683119748</v>
+        <v>586289.5683119749</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>638320.4824218965</v>
+        <v>638320.4824218967</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>646542.6947179721</v>
+        <v>646542.6947179722</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>637056.3274933756</v>
+        <v>637056.3274933755</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>637056.3274933756</v>
+        <v>637056.3274933755</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>582547.416892567</v>
+        <v>582547.4168925668</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>582547.4168925668</v>
+        <v>582547.416892567</v>
       </c>
     </row>
   </sheetData>
@@ -26311,43 +26311,43 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>819276.3387170383</v>
+      </c>
+      <c r="C2" t="n">
         <v>819276.3387170385</v>
-      </c>
-      <c r="C2" t="n">
-        <v>819276.3387170383</v>
       </c>
       <c r="D2" t="n">
         <v>820371.005199119</v>
       </c>
       <c r="E2" t="n">
-        <v>767835.005211025</v>
+        <v>767835.0052110251</v>
       </c>
       <c r="F2" t="n">
-        <v>767835.005211025</v>
+        <v>767835.0052110254</v>
       </c>
       <c r="G2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642826</v>
       </c>
       <c r="H2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642836</v>
       </c>
       <c r="I2" t="n">
-        <v>821041.7698642822</v>
+        <v>821041.7698642827</v>
       </c>
       <c r="J2" t="n">
-        <v>817953.0281898961</v>
+        <v>817953.028189896</v>
       </c>
       <c r="K2" t="n">
         <v>817953.0281898959</v>
       </c>
       <c r="L2" t="n">
-        <v>819043.6245633732</v>
+        <v>819043.6245633728</v>
       </c>
       <c r="M2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="N2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="O2" t="n">
         <v>764531.0098898427</v>
@@ -26375,7 +26375,7 @@
         <v>1162488.598075477</v>
       </c>
       <c r="F3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>43563.97630336745</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>41134.59983050841</v>
+        <v>41134.59983050845</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>16969.67584401433</v>
+        <v>16969.67584401441</v>
       </c>
       <c r="M3" t="n">
         <v>205589.7634658736</v>
       </c>
       <c r="N3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>425420.8672695345</v>
       </c>
       <c r="E4" t="n">
-        <v>58264.88103180897</v>
+        <v>58264.88103180903</v>
       </c>
       <c r="F4" t="n">
-        <v>58264.88103180904</v>
+        <v>58264.88103180911</v>
       </c>
       <c r="G4" t="n">
         <v>82621.82837343635</v>
       </c>
       <c r="H4" t="n">
-        <v>82621.82837343632</v>
+        <v>82621.82837343635</v>
       </c>
       <c r="I4" t="n">
         <v>82621.82837343635</v>
       </c>
       <c r="J4" t="n">
-        <v>75805.00953995025</v>
+        <v>75805.00953995026</v>
       </c>
       <c r="K4" t="n">
-        <v>75805.00953995016</v>
+        <v>75805.00953995009</v>
       </c>
       <c r="L4" t="n">
-        <v>76828.59500547308</v>
+        <v>76828.59500547321</v>
       </c>
       <c r="M4" t="n">
-        <v>83223.49232419798</v>
+        <v>83223.492324198</v>
       </c>
       <c r="N4" t="n">
-        <v>83223.49232419803</v>
+        <v>83223.49232419793</v>
       </c>
       <c r="O4" t="n">
-        <v>56995.66948357398</v>
+        <v>56995.66948357393</v>
       </c>
       <c r="P4" t="n">
-        <v>56995.66948357402</v>
+        <v>56995.66948357406</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>34045.66358109605</v>
       </c>
       <c r="E5" t="n">
-        <v>78905.78571450672</v>
+        <v>78905.78571450677</v>
       </c>
       <c r="F5" t="n">
-        <v>78905.78571450672</v>
+        <v>78905.78571450675</v>
       </c>
       <c r="G5" t="n">
-        <v>86766.46530869283</v>
+        <v>86766.46530869284</v>
       </c>
       <c r="H5" t="n">
-        <v>86766.46530869283</v>
+        <v>86766.46530869284</v>
       </c>
       <c r="I5" t="n">
-        <v>86766.46530869283</v>
+        <v>86766.46530869284</v>
       </c>
       <c r="J5" t="n">
+        <v>90108.1421042212</v>
+      </c>
+      <c r="K5" t="n">
         <v>90108.14210422119</v>
       </c>
-      <c r="K5" t="n">
-        <v>90108.14210422117</v>
-      </c>
       <c r="L5" t="n">
-        <v>89850.31738976341</v>
+        <v>89850.31738976344</v>
       </c>
       <c r="M5" t="n">
+        <v>86365.42236199841</v>
+      </c>
+      <c r="N5" t="n">
         <v>86365.42236199843</v>
       </c>
-      <c r="N5" t="n">
-        <v>86365.42236199844</v>
-      </c>
       <c r="O5" t="n">
+        <v>78255.49332178173</v>
+      </c>
+      <c r="P5" t="n">
         <v>78255.49332178175</v>
-      </c>
-      <c r="P5" t="n">
-        <v>78255.49332178173</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>360125.599550935</v>
+        <v>360121.1859730667</v>
       </c>
       <c r="C6" t="n">
-        <v>360125.5995509347</v>
+        <v>360121.1859730668</v>
       </c>
       <c r="D6" t="n">
-        <v>358768.5682597407</v>
+        <v>358766.8913480777</v>
       </c>
       <c r="E6" t="n">
-        <v>-531824.2596107674</v>
+        <v>-531957.2765224006</v>
       </c>
       <c r="F6" t="n">
-        <v>630664.3384647092</v>
+        <v>630531.3215530764</v>
       </c>
       <c r="G6" t="n">
-        <v>608089.499878787</v>
+        <v>608089.4998787859</v>
       </c>
       <c r="H6" t="n">
-        <v>651653.4761821541</v>
+        <v>651653.4761821544</v>
       </c>
       <c r="I6" t="n">
-        <v>651653.476182153</v>
+        <v>651653.4761821534</v>
       </c>
       <c r="J6" t="n">
-        <v>610905.2767152162</v>
+        <v>610897.5548610302</v>
       </c>
       <c r="K6" t="n">
-        <v>652039.8765457246</v>
+        <v>652032.1546915389</v>
       </c>
       <c r="L6" t="n">
-        <v>635395.0363241222</v>
+        <v>635390.0409608695</v>
       </c>
       <c r="M6" t="n">
-        <v>445863.0917122131</v>
+        <v>445863.0917122133</v>
       </c>
       <c r="N6" t="n">
         <v>651452.855178087</v>
       </c>
       <c r="O6" t="n">
-        <v>629279.847084487</v>
+        <v>629138.5701845509</v>
       </c>
       <c r="P6" t="n">
-        <v>629279.8470844857</v>
+        <v>629138.5701845494</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
         <v>46.97513661859257</v>
       </c>
       <c r="G2" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="H2" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="I2" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="J2" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="K2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292581</v>
       </c>
       <c r="L2" t="n">
-        <v>43.48296965252833</v>
+        <v>43.48296965252835</v>
       </c>
       <c r="M2" t="n">
-        <v>69.24601146610297</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="N2" t="n">
-        <v>69.24601146610304</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="O2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859266</v>
+        <v>46.9751366185927</v>
       </c>
     </row>
     <row r="3">
@@ -26796,40 +26796,40 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>842.0970539668483</v>
+        <v>842.0970539668489</v>
       </c>
       <c r="F4" t="n">
-        <v>842.0970539668483</v>
+        <v>842.0970539668488</v>
       </c>
       <c r="G4" t="n">
-        <v>944.6897984185151</v>
+        <v>944.6897984185155</v>
       </c>
       <c r="H4" t="n">
-        <v>944.6897984185151</v>
+        <v>944.6897984185155</v>
       </c>
       <c r="I4" t="n">
-        <v>944.6897984185151</v>
+        <v>944.6897984185155</v>
       </c>
       <c r="J4" t="n">
-        <v>1033.810511878407</v>
+        <v>1033.810511878408</v>
       </c>
       <c r="K4" t="n">
-        <v>1033.810511878407</v>
+        <v>1033.810511878408</v>
       </c>
       <c r="L4" t="n">
         <v>1026.934466136696</v>
       </c>
       <c r="M4" t="n">
-        <v>933.9941998539592</v>
+        <v>933.994199853959</v>
       </c>
       <c r="N4" t="n">
-        <v>933.9941998539592</v>
+        <v>933.994199853959</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022923</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>19.30605492541551</v>
+        <v>19.30605492541547</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,19 +26929,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>22.27087484751044</v>
+        <v>22.27087484751046</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-1.35003119794419e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>21.21209480501792</v>
+        <v>21.21209480501801</v>
       </c>
       <c r="M2" t="n">
-        <v>25.76304181357465</v>
+        <v>25.76304181357467</v>
       </c>
       <c r="N2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26969,7 +26969,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>835.2210082251369</v>
+        <v>835.2210082251374</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>102.5927444516666</v>
+        <v>102.5927444516667</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>89.12071345989227</v>
+        <v>89.12071345989239</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>742.2807419424</v>
+        <v>742.2807419424001</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>19.30605492541551</v>
+        <v>19.30605492541547</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>22.27087484751044</v>
+        <v>22.27087484751046</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>835.2210082251369</v>
+        <v>835.2210082251374</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>102.5927444516666</v>
+        <v>102.5927444516667</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>5.073243612901081</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.934278125245373</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>343.1845476281136</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>362.8550549367576</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27932,19 +27932,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>167.3986692252742</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>140.5690198229273</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>150.7690347136895</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>130.4674714214992</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,22 +27977,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>93.2817884109317</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>165.6267500145384</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>219.0653363392634</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>244.8189374192082</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28017,16 +28017,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>140.3775415572698</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>138.5450022812198</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>161.1149336167473</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>155.3511267657281</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -28053,7 +28053,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>79.28599750998295</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28062,10 +28062,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>221.0695436865701</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>280.2626082671915</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>218.8336096473257</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="14">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="C17" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="D17" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="E17" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="F17" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="G17" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="H17" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="T17" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="U17" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="V17" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="W17" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="X17" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="Y17" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
     </row>
     <row r="18">
@@ -28719,34 +28719,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="C19" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="D19" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="E19" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="F19" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="G19" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="H19" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="I19" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>60.63235628243234</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>60.63235628243365</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="S19" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="T19" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="U19" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="V19" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="W19" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="X19" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="C20" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="D20" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="E20" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="F20" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="G20" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="H20" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="T20" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="U20" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="V20" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="W20" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="X20" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="Y20" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
     </row>
     <row r="21">
@@ -28956,31 +28956,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="C22" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="D22" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="E22" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="F22" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="G22" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="H22" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="I22" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="J22" t="n">
-        <v>60.63235628243234</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28989,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>60.6323562824337</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="S22" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="T22" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="U22" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="V22" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="W22" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="X22" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="C23" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="D23" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="E23" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="F23" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="G23" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="H23" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="T23" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="U23" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="V23" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="W23" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="X23" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="Y23" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="C25" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="D25" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="E25" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="F25" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="G25" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="H25" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="I25" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29223,10 +29223,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>60.6323562824337</v>
       </c>
       <c r="M25" t="n">
-        <v>60.63235628243234</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="S25" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="T25" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="U25" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="V25" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="W25" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="X25" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
       <c r="Y25" t="n">
-        <v>66.28119154400808</v>
+        <v>66.28119154400804</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="C26" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="D26" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="E26" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="F26" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="G26" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="H26" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="T26" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="U26" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="V26" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="W26" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="X26" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="Y26" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292598</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="C28" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="D28" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="E28" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="F28" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="G28" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="H28" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="I28" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J28" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="K28" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="L28" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="M28" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="N28" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="O28" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="P28" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="Q28" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="R28" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="S28" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="T28" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="U28" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="V28" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="W28" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="X28" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="Y28" t="n">
-        <v>41.57692977292599</v>
+        <v>41.57692977292598</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292581</v>
       </c>
       <c r="C29" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292581</v>
       </c>
       <c r="D29" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292581</v>
       </c>
       <c r="E29" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292581</v>
       </c>
       <c r="F29" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292581</v>
       </c>
       <c r="G29" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292581</v>
       </c>
       <c r="H29" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292581</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292581</v>
       </c>
       <c r="T29" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292581</v>
       </c>
       <c r="U29" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292581</v>
       </c>
       <c r="V29" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292581</v>
       </c>
       <c r="W29" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292581</v>
       </c>
       <c r="X29" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292581</v>
       </c>
       <c r="Y29" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292581</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292581</v>
       </c>
       <c r="C31" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292581</v>
       </c>
       <c r="D31" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292581</v>
       </c>
       <c r="E31" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292581</v>
       </c>
       <c r="F31" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292581</v>
       </c>
       <c r="G31" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292581</v>
       </c>
       <c r="H31" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292581</v>
       </c>
       <c r="I31" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292581</v>
       </c>
       <c r="J31" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292581</v>
       </c>
       <c r="K31" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292581</v>
       </c>
       <c r="L31" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292581</v>
       </c>
       <c r="M31" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292581</v>
       </c>
       <c r="N31" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292581</v>
       </c>
       <c r="O31" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292581</v>
       </c>
       <c r="P31" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292581</v>
       </c>
       <c r="Q31" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292581</v>
       </c>
       <c r="R31" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292581</v>
       </c>
       <c r="S31" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292581</v>
       </c>
       <c r="T31" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292581</v>
       </c>
       <c r="U31" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292581</v>
       </c>
       <c r="V31" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292581</v>
       </c>
       <c r="W31" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292581</v>
       </c>
       <c r="X31" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292581</v>
       </c>
       <c r="Y31" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292581</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>43.48296965252833</v>
+        <v>43.48296965252835</v>
       </c>
       <c r="C32" t="n">
-        <v>43.48296965252833</v>
+        <v>43.48296965252835</v>
       </c>
       <c r="D32" t="n">
-        <v>43.48296965252833</v>
+        <v>43.48296965252835</v>
       </c>
       <c r="E32" t="n">
-        <v>43.48296965252833</v>
+        <v>43.48296965252835</v>
       </c>
       <c r="F32" t="n">
-        <v>43.48296965252833</v>
+        <v>43.48296965252835</v>
       </c>
       <c r="G32" t="n">
-        <v>43.48296965252833</v>
+        <v>43.48296965252835</v>
       </c>
       <c r="H32" t="n">
-        <v>43.48296965252833</v>
+        <v>43.48296965252835</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>43.48296965252833</v>
+        <v>43.48296965252835</v>
       </c>
       <c r="T32" t="n">
-        <v>43.48296965252833</v>
+        <v>43.48296965252835</v>
       </c>
       <c r="U32" t="n">
-        <v>43.48296965252833</v>
+        <v>43.48296965252835</v>
       </c>
       <c r="V32" t="n">
-        <v>43.48296965252833</v>
+        <v>43.48296965252835</v>
       </c>
       <c r="W32" t="n">
-        <v>43.48296965252833</v>
+        <v>43.48296965252835</v>
       </c>
       <c r="X32" t="n">
-        <v>43.48296965252833</v>
+        <v>43.48296965252835</v>
       </c>
       <c r="Y32" t="n">
-        <v>43.48296965252833</v>
+        <v>43.48296965252835</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>43.48296965252833</v>
+        <v>43.48296965252835</v>
       </c>
       <c r="C34" t="n">
-        <v>43.48296965252833</v>
+        <v>43.48296965252835</v>
       </c>
       <c r="D34" t="n">
-        <v>43.48296965252833</v>
+        <v>43.48296965252835</v>
       </c>
       <c r="E34" t="n">
-        <v>43.48296965252833</v>
+        <v>43.48296965252835</v>
       </c>
       <c r="F34" t="n">
-        <v>43.48296965252833</v>
+        <v>43.48296965252835</v>
       </c>
       <c r="G34" t="n">
-        <v>43.48296965252833</v>
+        <v>43.48296965252835</v>
       </c>
       <c r="H34" t="n">
-        <v>43.48296965252833</v>
+        <v>43.48296965252835</v>
       </c>
       <c r="I34" t="n">
-        <v>43.48296965252833</v>
+        <v>43.48296965252835</v>
       </c>
       <c r="J34" t="n">
-        <v>43.48296965252833</v>
+        <v>43.48296965252835</v>
       </c>
       <c r="K34" t="n">
-        <v>43.48296965252833</v>
+        <v>43.48296965252835</v>
       </c>
       <c r="L34" t="n">
-        <v>43.48296965252833</v>
+        <v>43.48296965252835</v>
       </c>
       <c r="M34" t="n">
-        <v>43.48296965252833</v>
+        <v>43.48296965252835</v>
       </c>
       <c r="N34" t="n">
-        <v>43.48296965252833</v>
+        <v>43.48296965252835</v>
       </c>
       <c r="O34" t="n">
-        <v>43.48296965252833</v>
+        <v>43.48296965252835</v>
       </c>
       <c r="P34" t="n">
-        <v>43.48296965252833</v>
+        <v>43.48296965252835</v>
       </c>
       <c r="Q34" t="n">
-        <v>43.48296965252833</v>
+        <v>43.48296965252835</v>
       </c>
       <c r="R34" t="n">
-        <v>43.48296965252833</v>
+        <v>43.48296965252835</v>
       </c>
       <c r="S34" t="n">
-        <v>43.48296965252833</v>
+        <v>43.48296965252835</v>
       </c>
       <c r="T34" t="n">
-        <v>43.48296965252833</v>
+        <v>43.48296965252835</v>
       </c>
       <c r="U34" t="n">
-        <v>43.48296965252833</v>
+        <v>43.48296965252835</v>
       </c>
       <c r="V34" t="n">
-        <v>43.48296965252833</v>
+        <v>43.48296965252835</v>
       </c>
       <c r="W34" t="n">
-        <v>43.48296965252833</v>
+        <v>43.48296965252835</v>
       </c>
       <c r="X34" t="n">
-        <v>43.48296965252833</v>
+        <v>43.48296965252835</v>
       </c>
       <c r="Y34" t="n">
-        <v>43.48296965252833</v>
+        <v>43.48296965252835</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>69.24601146610297</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="C35" t="n">
-        <v>69.24601146610297</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="D35" t="n">
-        <v>69.24601146610297</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="E35" t="n">
-        <v>69.24601146610297</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="F35" t="n">
-        <v>69.24601146610297</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="G35" t="n">
-        <v>69.24601146610297</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="H35" t="n">
-        <v>69.24601146610297</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>69.24601146610297</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="T35" t="n">
-        <v>69.24601146610297</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="U35" t="n">
-        <v>69.24601146610297</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="V35" t="n">
-        <v>69.24601146610297</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="W35" t="n">
-        <v>69.24601146610297</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="X35" t="n">
-        <v>69.24601146610297</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="Y35" t="n">
-        <v>69.24601146610297</v>
+        <v>69.24601146610303</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>69.24601146610297</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="C37" t="n">
-        <v>69.24601146610297</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="D37" t="n">
-        <v>69.24601146610297</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="E37" t="n">
-        <v>69.24601146610297</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="F37" t="n">
-        <v>69.24601146610297</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="G37" t="n">
-        <v>69.24601146610297</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="H37" t="n">
-        <v>69.24601146610297</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="I37" t="n">
-        <v>69.24601146610297</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30177,40 +30177,40 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>12.23207186908792</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>12.23207186908868</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>69.24601146610297</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="S37" t="n">
-        <v>69.24601146610297</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="T37" t="n">
-        <v>69.24601146610297</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="U37" t="n">
-        <v>69.24601146610297</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="V37" t="n">
-        <v>69.24601146610297</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="W37" t="n">
-        <v>69.24601146610297</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="X37" t="n">
-        <v>69.24601146610297</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.24601146610297</v>
+        <v>69.24601146610303</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>69.24601146610304</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="C38" t="n">
-        <v>69.24601146610304</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="D38" t="n">
-        <v>69.24601146610304</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="E38" t="n">
-        <v>69.24601146610304</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="F38" t="n">
-        <v>69.24601146610304</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="G38" t="n">
-        <v>69.24601146610304</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="H38" t="n">
-        <v>69.24601146610304</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>69.24601146610304</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="T38" t="n">
-        <v>69.24601146610304</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="U38" t="n">
-        <v>69.24601146610304</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="V38" t="n">
-        <v>69.24601146610304</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="W38" t="n">
-        <v>69.24601146610304</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="X38" t="n">
-        <v>69.24601146610304</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="Y38" t="n">
-        <v>69.24601146610304</v>
+        <v>69.24601146610303</v>
       </c>
     </row>
     <row r="39">
@@ -30378,37 +30378,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>69.24601146610304</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="C40" t="n">
-        <v>69.24601146610304</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="D40" t="n">
-        <v>69.24601146610304</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="E40" t="n">
-        <v>69.24601146610304</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="F40" t="n">
-        <v>69.24601146610304</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="G40" t="n">
-        <v>69.24601146610304</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="H40" t="n">
-        <v>69.24601146610304</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="I40" t="n">
-        <v>69.24601146610304</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>12.23207186908735</v>
       </c>
       <c r="L40" t="n">
-        <v>12.23207186908803</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>69.24601146610304</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="S40" t="n">
-        <v>69.24601146610304</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="T40" t="n">
-        <v>69.24601146610304</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="U40" t="n">
-        <v>69.24601146610304</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="V40" t="n">
-        <v>69.24601146610304</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="W40" t="n">
-        <v>69.24601146610304</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="X40" t="n">
-        <v>69.24601146610304</v>
+        <v>69.24601146610303</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.24601146610304</v>
+        <v>69.24601146610303</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859266</v>
+        <v>46.9751366185927</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859266</v>
+        <v>46.9751366185927</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859266</v>
+        <v>46.9751366185927</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859266</v>
+        <v>46.9751366185927</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859266</v>
+        <v>46.9751366185927</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859266</v>
+        <v>46.9751366185927</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859266</v>
+        <v>46.9751366185927</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859266</v>
+        <v>46.9751366185927</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859266</v>
+        <v>46.9751366185927</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859266</v>
+        <v>46.9751366185927</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859266</v>
+        <v>46.9751366185927</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859266</v>
+        <v>46.9751366185927</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859266</v>
+        <v>46.9751366185927</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859266</v>
+        <v>46.9751366185927</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859266</v>
+        <v>46.9751366185927</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859266</v>
+        <v>46.9751366185927</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859266</v>
+        <v>46.9751366185927</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859266</v>
+        <v>46.9751366185927</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859266</v>
+        <v>46.9751366185927</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859266</v>
+        <v>46.9751366185927</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859266</v>
+        <v>46.9751366185927</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859266</v>
+        <v>46.9751366185927</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859266</v>
+        <v>46.9751366185927</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859266</v>
+        <v>46.9751366185927</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859266</v>
+        <v>46.9751366185927</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859266</v>
+        <v>46.9751366185927</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859266</v>
+        <v>46.9751366185927</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859266</v>
+        <v>46.9751366185927</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859266</v>
+        <v>46.9751366185927</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859266</v>
+        <v>46.9751366185927</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859266</v>
+        <v>46.9751366185927</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859266</v>
+        <v>46.9751366185927</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859266</v>
+        <v>46.9751366185927</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859266</v>
+        <v>46.9751366185927</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859266</v>
+        <v>46.9751366185927</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859266</v>
+        <v>46.9751366185927</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859266</v>
+        <v>46.9751366185927</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859266</v>
+        <v>46.9751366185927</v>
       </c>
     </row>
   </sheetData>
@@ -32096,7 +32096,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.215670698749</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32570,7 +32570,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -33266,7 +33266,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138803</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233474</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,37 +34436,37 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987499</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34475,7 +34475,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34524,16 +34524,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
         <v>300.7247737883114</v>
@@ -34542,19 +34542,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780294</v>
@@ -35176,19 +35176,19 @@
         <v>6.876045741711437</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="N8" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>6.598225711743297</v>
-      </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35258,10 +35258,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>6.598225711743296</v>
-      </c>
-      <c r="N9" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="O9" t="n">
         <v>6.876045741711437</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35337,13 +35337,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M10" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="N10" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O10" t="n">
-        <v>6.598225711743297</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>233.1372498303892</v>
       </c>
       <c r="K11" t="n">
         <v>337.1912865554005</v>
@@ -35428,7 +35428,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>293.1445536653937</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
         <v>59.61319854222478</v>
@@ -35571,7 +35571,7 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M13" t="n">
         <v>394.6085160120764</v>
@@ -35653,7 +35653,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>581.2713646919042</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129113</v>
@@ -35665,7 +35665,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>293.1445536653951</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222472</v>
@@ -35744,7 +35744,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127274</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554004</v>
@@ -35899,7 +35899,7 @@
         <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>400.2100257907667</v>
+        <v>569.3066409628417</v>
       </c>
       <c r="Q17" t="n">
         <v>463.1092954636241</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359774</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -36042,7 +36042,7 @@
         <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>266.6800158267519</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36051,7 +36051,7 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>405.4893024499737</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226397</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>192.8464651093425</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554004</v>
@@ -36133,13 +36133,13 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
-        <v>400.2100257907667</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36218,7 +36218,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>106.2107728954985</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443195</v>
@@ -36285,7 +36285,7 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>408.2657356759175</v>
       </c>
       <c r="N22" t="n">
         <v>344.8569461675401</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554004</v>
@@ -36367,16 +36367,16 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>788.5629100293642</v>
       </c>
       <c r="O23" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>678.2414363236539</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222472</v>
@@ -36519,10 +36519,10 @@
         <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>380.3897284526318</v>
       </c>
       <c r="M25" t="n">
-        <v>408.2657356759161</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
         <v>344.8569461675401</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>454.3228002259671</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>775.3973842652888</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.15534638599219</v>
+        <v>87.15534638599217</v>
       </c>
       <c r="K28" t="n">
         <v>247.6245893172455</v>
@@ -36759,7 +36759,7 @@
         <v>361.334301943124</v>
       </c>
       <c r="M28" t="n">
-        <v>389.2103091664098</v>
+        <v>389.2103091664097</v>
       </c>
       <c r="N28" t="n">
         <v>386.433875940466</v>
@@ -36768,7 +36768,7 @@
         <v>343.9300599955657</v>
       </c>
       <c r="P28" t="n">
-        <v>276.5340009180364</v>
+        <v>276.5340009180363</v>
       </c>
       <c r="Q28" t="n">
         <v>119.9711683108196</v>
@@ -36838,7 +36838,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>783.7674548221446</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129113</v>
@@ -36847,10 +36847,10 @@
         <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.9258184742865</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36914,7 +36914,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340061</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013291</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.15534638599212</v>
+        <v>87.155346385992</v>
       </c>
       <c r="K31" t="n">
-        <v>247.6245893172454</v>
+        <v>247.6245893172453</v>
       </c>
       <c r="L31" t="n">
-        <v>361.334301943124</v>
+        <v>361.3343019431239</v>
       </c>
       <c r="M31" t="n">
-        <v>389.2103091664097</v>
+        <v>389.2103091664096</v>
       </c>
       <c r="N31" t="n">
-        <v>386.433875940466</v>
+        <v>386.4338759404658</v>
       </c>
       <c r="O31" t="n">
-        <v>343.9300599955657</v>
+        <v>343.9300599955656</v>
       </c>
       <c r="P31" t="n">
-        <v>276.5340009180363</v>
+        <v>276.5340009180362</v>
       </c>
       <c r="Q31" t="n">
-        <v>119.9711683108195</v>
+        <v>119.9711683108194</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>557.6068208080442</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>586.2358757684264</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37230,7 +37230,7 @@
         <v>249.5306291968479</v>
       </c>
       <c r="L34" t="n">
-        <v>363.2403418227265</v>
+        <v>363.2403418227264</v>
       </c>
       <c r="M34" t="n">
         <v>391.1163490460121</v>
@@ -37318,16 +37318,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908542</v>
+        <v>424.1876213713062</v>
       </c>
       <c r="Q35" t="n">
-        <v>269.5049931739352</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37473,13 +37473,13 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675401</v>
+        <v>357.089018036628</v>
       </c>
       <c r="O37" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
-        <v>247.1891430141991</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
         <v>78.39423853789363</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>466.7428467832784</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>933.994199853959</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>636.2474067700127</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>218.2797314134069</v>
       </c>
       <c r="L40" t="n">
-        <v>331.9894440392861</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
         <v>347.6333793934838</v>
@@ -37713,13 +37713,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222479</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37944,7 +37944,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
         <v>391.8320827861326</v>
@@ -37953,7 +37953,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127284</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165884</v>
+        <v>92.5535532316589</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629122</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120765</v>
       </c>
       <c r="N46" t="n">
         <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637031</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
